--- a/results/stock_prey.xlsx
+++ b/results/stock_prey.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="G3">
-        <v>199650700</v>
+        <v>193416990</v>
       </c>
       <c r="H3">
-        <v>1777601.4</v>
+        <v>1748062.4</v>
       </c>
       <c r="I3">
-        <v>0.60596664</v>
+        <v>0.46686174</v>
       </c>
     </row>
     <row r="4">
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="G4">
-        <v>200009.62</v>
+        <v>6043270.5</v>
       </c>
       <c r="H4">
-        <v>1138.511</v>
+        <v>25826.893</v>
       </c>
       <c r="I4">
-        <v>0.55228762</v>
+        <v>0.31551277</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="G5">
-        <v>106950.46</v>
+        <v>497395.24</v>
       </c>
       <c r="H5">
-        <v>804.60615</v>
+        <v>4007.4213</v>
       </c>
       <c r="I5">
-        <v>0.59260833</v>
+        <v>0.48454092</v>
       </c>
     </row>
     <row r="6">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="G7">
-        <v>302932050</v>
+        <v>292590280</v>
       </c>
       <c r="H7">
-        <v>2776147.9</v>
+        <v>2820502.3</v>
       </c>
       <c r="I7">
-        <v>1.683298</v>
+        <v>1.2000829</v>
       </c>
     </row>
     <row r="8">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="G8">
-        <v>309187.91</v>
+        <v>10051069</v>
       </c>
       <c r="H8">
-        <v>1864.3892</v>
+        <v>49561.968</v>
       </c>
       <c r="I8">
-        <v>1.5237182</v>
+        <v>0.83756654</v>
       </c>
     </row>
     <row r="9">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="G9">
-        <v>163301.21</v>
+        <v>763195.17</v>
       </c>
       <c r="H9">
-        <v>1282.347</v>
+        <v>6665.8438</v>
       </c>
       <c r="I9">
-        <v>1.6467248</v>
+        <v>1.2779372</v>
       </c>
     </row>
     <row r="10">
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="G10">
-        <v>35179822</v>
+        <v>31456928</v>
       </c>
       <c r="H10">
-        <v>315234.53</v>
+        <v>291652.97</v>
       </c>
       <c r="I10">
-        <v>0.42371799</v>
+        <v>0.28247193</v>
       </c>
     </row>
     <row r="11">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="G11">
-        <v>43265383</v>
+        <v>45103803</v>
       </c>
       <c r="H11">
-        <v>395767.49</v>
+        <v>439947.66</v>
       </c>
       <c r="I11">
-        <v>0.43669044</v>
+        <v>0.31033047</v>
       </c>
     </row>
     <row r="12">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="G12">
-        <v>46441.244</v>
+        <v>1834563.3</v>
       </c>
       <c r="H12">
-        <v>291.75756</v>
+        <v>10115.013</v>
       </c>
       <c r="I12">
-        <v>0.40541022</v>
+        <v>0.24257698</v>
       </c>
     </row>
     <row r="13">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="G13">
-        <v>23715.556</v>
+        <v>120067.69</v>
       </c>
       <c r="H13">
-        <v>190.5902</v>
+        <v>1096.4679</v>
       </c>
       <c r="I13">
-        <v>0.43202701</v>
+        <v>0.34206089</v>
       </c>
     </row>
     <row r="14">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="G14">
-        <v>4541477.7</v>
+        <v>4029079.9</v>
       </c>
       <c r="H14">
-        <v>41801.378</v>
+        <v>39927.52</v>
       </c>
       <c r="I14">
-        <v>0.10153928</v>
+        <v>0.06567464000000001</v>
       </c>
     </row>
     <row r="15">
@@ -885,13 +885,13 @@
         </is>
       </c>
       <c r="G15">
-        <v>6994035.7</v>
+        <v>7189678.2</v>
       </c>
       <c r="H15">
-        <v>66079.048</v>
+        <v>75218.87</v>
       </c>
       <c r="I15">
-        <v>0.10459102</v>
+        <v>0.07183165399999999</v>
       </c>
     </row>
     <row r="16">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="G16">
-        <v>7595.8941</v>
+        <v>309062.95</v>
       </c>
       <c r="H16">
-        <v>50.439843</v>
+        <v>1935.1586</v>
       </c>
       <c r="I16">
-        <v>0.09777021599999999</v>
+        <v>0.058739426</v>
       </c>
     </row>
     <row r="17">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="G17">
-        <v>3845.8088</v>
+        <v>19134.014</v>
       </c>
       <c r="H17">
-        <v>32.295217</v>
+        <v>190.99668</v>
       </c>
       <c r="I17">
-        <v>0.10372759</v>
+        <v>0.079550358</v>
       </c>
     </row>
     <row r="18">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="G19">
-        <v>305896420</v>
+        <v>287030630</v>
       </c>
       <c r="H19">
-        <v>2754625.8</v>
+        <v>2862394.3</v>
       </c>
       <c r="I19">
-        <v>0.90222996</v>
+        <v>0.69070316</v>
       </c>
     </row>
     <row r="20">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="G20">
-        <v>40219821</v>
+        <v>56497405</v>
       </c>
       <c r="H20">
-        <v>394920.45</v>
+        <v>640322.71</v>
       </c>
       <c r="I20">
-        <v>0.94721783</v>
+        <v>0.8779633100000001</v>
       </c>
     </row>
     <row r="21">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="G21">
-        <v>65999.341</v>
+        <v>2654212.9</v>
       </c>
       <c r="H21">
-        <v>503.01498</v>
+        <v>19399.498</v>
       </c>
       <c r="I21">
-        <v>0.89997739</v>
+        <v>0.7364808900000001</v>
       </c>
     </row>
     <row r="22">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="G23">
-        <v>186239840</v>
+        <v>175532300</v>
       </c>
       <c r="H23">
-        <v>1698752.9</v>
+        <v>1789731.5</v>
       </c>
       <c r="I23">
-        <v>0.95915814</v>
+        <v>0.69517448</v>
       </c>
     </row>
     <row r="24">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="G24">
-        <v>24245045</v>
+        <v>33304435</v>
       </c>
       <c r="H24">
-        <v>242661.67</v>
+        <v>391393.74</v>
       </c>
       <c r="I24">
-        <v>1.0088614</v>
+        <v>0.89381605</v>
       </c>
     </row>
     <row r="25">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="G25">
-        <v>40448.106</v>
+        <v>1688597.9</v>
       </c>
       <c r="H25">
-        <v>320.8695</v>
+        <v>13513.901</v>
       </c>
       <c r="I25">
-        <v>0.96328095</v>
+        <v>0.78408378</v>
       </c>
     </row>
     <row r="26">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="G26">
-        <v>57669686</v>
+        <v>36381847</v>
       </c>
       <c r="H26">
-        <v>516758.63</v>
+        <v>337314.36</v>
       </c>
       <c r="I26">
-        <v>0.46413243</v>
+        <v>0.43713503</v>
       </c>
     </row>
     <row r="27">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="G27">
-        <v>55306352</v>
+        <v>70251315</v>
       </c>
       <c r="H27">
-        <v>509998.57</v>
+        <v>729011.47</v>
       </c>
       <c r="I27">
-        <v>0.47232013</v>
+        <v>0.44434573</v>
       </c>
     </row>
     <row r="28">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="G28">
-        <v>7120508.7</v>
+        <v>12784611</v>
       </c>
       <c r="H28">
-        <v>72523.745</v>
+        <v>155517.6</v>
       </c>
       <c r="I28">
-        <v>0.49593917</v>
+        <v>0.57099699</v>
       </c>
     </row>
     <row r="29">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="G29">
-        <v>12072.053</v>
+        <v>690845.59</v>
       </c>
       <c r="H29">
-        <v>99.474092</v>
+        <v>6022.5897</v>
       </c>
       <c r="I29">
-        <v>0.4772837</v>
+        <v>0.52326305</v>
       </c>
     </row>
     <row r="30">
@@ -1410,13 +1410,13 @@
         </is>
       </c>
       <c r="G30">
-        <v>151361390</v>
+        <v>170977910</v>
       </c>
       <c r="H30">
-        <v>1377463.6</v>
+        <v>1405907.2</v>
       </c>
       <c r="I30">
-        <v>2.7433496</v>
+        <v>1.4637897</v>
       </c>
     </row>
     <row r="31">
@@ -1445,13 +1445,13 @@
         </is>
       </c>
       <c r="G31">
-        <v>160582520</v>
+        <v>136236640</v>
       </c>
       <c r="H31">
-        <v>1520627.2</v>
+        <v>1469787</v>
       </c>
       <c r="I31">
-        <v>2.8019856</v>
+        <v>1.5153847</v>
       </c>
     </row>
     <row r="32">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="G32">
-        <v>20551355</v>
+        <v>23972451</v>
       </c>
       <c r="H32">
-        <v>215417.77</v>
+        <v>306849.47</v>
       </c>
       <c r="I32">
-        <v>2.9970426</v>
+        <v>2.0313783</v>
       </c>
     </row>
     <row r="33">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="G33">
-        <v>35099.31</v>
+        <v>1343372.5</v>
       </c>
       <c r="H33">
-        <v>302.00696</v>
+        <v>12818.959</v>
       </c>
       <c r="I33">
-        <v>2.8531829</v>
+        <v>1.8872485</v>
       </c>
     </row>
     <row r="34">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="G35">
-        <v>320381960</v>
+        <v>300354860</v>
       </c>
       <c r="H35">
-        <v>2861904.8</v>
+        <v>2895338.8</v>
       </c>
       <c r="I35">
-        <v>1.1017892</v>
+        <v>0.8999938200000001</v>
       </c>
     </row>
     <row r="36">
@@ -1620,13 +1620,13 @@
         </is>
       </c>
       <c r="G36">
-        <v>27559366</v>
+        <v>43628719</v>
       </c>
       <c r="H36">
-        <v>242964.78</v>
+        <v>432781.79</v>
       </c>
       <c r="I36">
-        <v>1.1031889</v>
+        <v>0.9133717099999999</v>
       </c>
     </row>
     <row r="37">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="G37">
-        <v>3387575.3</v>
+        <v>7345328.3</v>
       </c>
       <c r="H37">
-        <v>33931.692</v>
+        <v>89159.795</v>
       </c>
       <c r="I37">
-        <v>1.1721521</v>
+        <v>1.2280304</v>
       </c>
     </row>
     <row r="38">
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="G39">
-        <v>310631400</v>
+        <v>291459560</v>
       </c>
       <c r="H39">
-        <v>2791299.8</v>
+        <v>2824713.2</v>
       </c>
       <c r="I39">
-        <v>2.217339</v>
+        <v>1.6552628</v>
       </c>
     </row>
     <row r="40">
@@ -1760,13 +1760,13 @@
         </is>
       </c>
       <c r="G40">
-        <v>26736962</v>
+        <v>42496811</v>
       </c>
       <c r="H40">
-        <v>237525.49</v>
+        <v>415913.29</v>
       </c>
       <c r="I40">
-        <v>2.2234658</v>
+        <v>1.6974627</v>
       </c>
     </row>
     <row r="41">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="G41">
-        <v>3233783.8</v>
+        <v>6645782.4</v>
       </c>
       <c r="H41">
-        <v>32861.871</v>
+        <v>81785.048</v>
       </c>
       <c r="I41">
-        <v>2.3903264</v>
+        <v>2.3912525</v>
       </c>
     </row>
     <row r="42">
@@ -1830,13 +1830,13 @@
         </is>
       </c>
       <c r="G42">
-        <v>17895946</v>
+        <v>15761085</v>
       </c>
       <c r="H42">
-        <v>160359.54</v>
+        <v>146128.93</v>
       </c>
       <c r="I42">
-        <v>0.39892926</v>
+        <v>0.32044079</v>
       </c>
     </row>
     <row r="43">
@@ -1865,13 +1865,13 @@
         </is>
       </c>
       <c r="G43">
-        <v>28660376</v>
+        <v>28753038</v>
       </c>
       <c r="H43">
-        <v>246721.17</v>
+        <v>250739.08</v>
       </c>
       <c r="I43">
-        <v>0.3974963</v>
+        <v>0.29022271</v>
       </c>
     </row>
     <row r="44">
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="G44">
-        <v>2468865.1</v>
+        <v>4233812.6</v>
       </c>
       <c r="H44">
-        <v>21098.666</v>
+        <v>36447.366</v>
       </c>
       <c r="I44">
-        <v>0.39933909</v>
+        <v>0.30273007</v>
       </c>
     </row>
     <row r="45">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="G45">
-        <v>287441.75</v>
+        <v>564693.54</v>
       </c>
       <c r="H45">
-        <v>2860.7348</v>
+        <v>6413.5015</v>
       </c>
       <c r="I45">
-        <v>0.42409919</v>
+        <v>0.40465158</v>
       </c>
     </row>
     <row r="46">
@@ -1970,13 +1970,13 @@
         </is>
       </c>
       <c r="G46">
-        <v>32379509</v>
+        <v>29414562</v>
       </c>
       <c r="H46">
-        <v>277624.72</v>
+        <v>234766.09</v>
       </c>
       <c r="I46">
-        <v>0.28420265</v>
+        <v>0.23949516</v>
       </c>
     </row>
     <row r="47">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="G47">
-        <v>13381664</v>
+        <v>15117548</v>
       </c>
       <c r="H47">
-        <v>118756.05</v>
+        <v>139634.58</v>
       </c>
       <c r="I47">
-        <v>0.27961169</v>
+        <v>0.22526663</v>
       </c>
     </row>
     <row r="48">
@@ -2040,13 +2040,13 @@
         </is>
       </c>
       <c r="G48">
-        <v>1152540.1</v>
+        <v>2229668.9</v>
       </c>
       <c r="H48">
-        <v>10170.042</v>
+        <v>20361.671</v>
       </c>
       <c r="I48">
-        <v>0.28097613</v>
+        <v>0.23604736</v>
       </c>
     </row>
     <row r="49">
@@ -2075,13 +2075,13 @@
         </is>
       </c>
       <c r="G49">
-        <v>133247.55</v>
+        <v>285181.87</v>
       </c>
       <c r="H49">
-        <v>1368.4901</v>
+        <v>3443.2625</v>
       </c>
       <c r="I49">
-        <v>0.29786446</v>
+        <v>0.30929353</v>
       </c>
     </row>
     <row r="50">
@@ -2145,13 +2145,13 @@
         </is>
       </c>
       <c r="G51">
-        <v>132246540</v>
+        <v>128206320</v>
       </c>
       <c r="H51">
-        <v>1183929</v>
+        <v>1219953.3</v>
       </c>
       <c r="I51">
-        <v>0.8370500400000001</v>
+        <v>0.61605482</v>
       </c>
     </row>
     <row r="52">
@@ -2180,13 +2180,13 @@
         </is>
       </c>
       <c r="G52">
-        <v>25251471</v>
+        <v>27206638</v>
       </c>
       <c r="H52">
-        <v>231700.7</v>
+        <v>267619.24</v>
       </c>
       <c r="I52">
-        <v>0.83842867</v>
+        <v>0.62333575</v>
       </c>
     </row>
     <row r="53">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="G53">
-        <v>2424563</v>
+        <v>4509622.2</v>
       </c>
       <c r="H53">
-        <v>22519.852</v>
+        <v>45533.95</v>
       </c>
       <c r="I53">
-        <v>0.84821485</v>
+        <v>0.6744132</v>
       </c>
     </row>
     <row r="54">
@@ -2285,13 +2285,13 @@
         </is>
       </c>
       <c r="G55">
-        <v>122131260</v>
+        <v>118386690</v>
       </c>
       <c r="H55">
-        <v>1116032.2</v>
+        <v>1173837.2</v>
       </c>
       <c r="I55">
-        <v>1.4125394</v>
+        <v>0.95709098</v>
       </c>
     </row>
     <row r="56">
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="G56">
-        <v>23297354</v>
+        <v>25137715</v>
       </c>
       <c r="H56">
-        <v>217259.1</v>
+        <v>254518.54</v>
       </c>
       <c r="I56">
-        <v>1.4139817</v>
+        <v>0.971568</v>
       </c>
     </row>
     <row r="57">
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G57">
-        <v>2232834.7</v>
+        <v>4137049.7</v>
       </c>
       <c r="H57">
-        <v>21128.801</v>
+        <v>43189.303</v>
       </c>
       <c r="I57">
-        <v>1.4328484</v>
+        <v>1.0620046</v>
       </c>
     </row>
     <row r="58">
@@ -2390,13 +2390,13 @@
         </is>
       </c>
       <c r="G58">
-        <v>8239381.9</v>
+        <v>5183891.8</v>
       </c>
       <c r="H58">
-        <v>73830.325</v>
+        <v>48062.462</v>
       </c>
       <c r="I58">
-        <v>0.63257867</v>
+        <v>0.41505684</v>
       </c>
     </row>
     <row r="59">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="G59">
-        <v>31235708</v>
+        <v>32717419</v>
       </c>
       <c r="H59">
-        <v>286223.75</v>
+        <v>327655.54</v>
       </c>
       <c r="I59">
-        <v>0.64967933</v>
+        <v>0.43656849</v>
       </c>
     </row>
     <row r="60">
@@ -2460,13 +2460,13 @@
         </is>
       </c>
       <c r="G60">
-        <v>5950637.2</v>
+        <v>6961628.5</v>
       </c>
       <c r="H60">
-        <v>55311.662</v>
+        <v>70316.639</v>
       </c>
       <c r="I60">
-        <v>0.64961192</v>
+        <v>0.44542075</v>
       </c>
     </row>
     <row r="61">
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="G61">
-        <v>568337.39</v>
+        <v>1131125.7</v>
       </c>
       <c r="H61">
-        <v>5383.105</v>
+        <v>11886.729</v>
       </c>
       <c r="I61">
-        <v>0.6583379</v>
+        <v>0.48898429</v>
       </c>
     </row>
     <row r="62">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="G62">
-        <v>32355.581</v>
+        <v>13570.86</v>
       </c>
       <c r="H62">
-        <v>284.16823</v>
+        <v>128.49876</v>
       </c>
       <c r="I62">
-        <v>0.002411383</v>
+        <v>0.0016917879</v>
       </c>
     </row>
     <row r="63">
@@ -2565,13 +2565,13 @@
         </is>
       </c>
       <c r="G63">
-        <v>78407.906</v>
+        <v>91029.45</v>
       </c>
       <c r="H63">
-        <v>736.99042</v>
+        <v>959.2154</v>
       </c>
       <c r="I63">
-        <v>0.002451504</v>
+        <v>0.001776695</v>
       </c>
     </row>
     <row r="64">
@@ -2600,13 +2600,13 @@
         </is>
       </c>
       <c r="G64">
-        <v>14932.926</v>
+        <v>19398.352</v>
       </c>
       <c r="H64">
-        <v>141.97558</v>
+        <v>205.31558</v>
       </c>
       <c r="I64">
-        <v>0.0024505111</v>
+        <v>0.0018174967</v>
       </c>
     </row>
     <row r="65">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="G65">
-        <v>1423.5875</v>
+        <v>3121.3371</v>
       </c>
       <c r="H65">
-        <v>13.817598</v>
+        <v>34.585791</v>
       </c>
       <c r="I65">
-        <v>0.002481626</v>
+        <v>0.0019869826</v>
       </c>
     </row>
     <row r="66">
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="G67">
-        <v>60568747</v>
+        <v>56656673</v>
       </c>
       <c r="H67">
-        <v>543767.4300000001</v>
+        <v>561584.15</v>
       </c>
       <c r="I67">
-        <v>0.47989298</v>
+        <v>0.3215349</v>
       </c>
     </row>
     <row r="68">
@@ -2740,13 +2740,13 @@
         </is>
       </c>
       <c r="G68">
-        <v>10850664</v>
+        <v>13650412</v>
       </c>
       <c r="H68">
-        <v>106171.18</v>
+        <v>155536.44</v>
       </c>
       <c r="I68">
-        <v>0.49963049</v>
+        <v>0.38695092</v>
       </c>
     </row>
     <row r="69">
@@ -2775,13 +2775,13 @@
         </is>
       </c>
       <c r="G69">
-        <v>2263470.4</v>
+        <v>3375796.9</v>
       </c>
       <c r="H69">
-        <v>22420.644</v>
+        <v>38861.081</v>
       </c>
       <c r="I69">
-        <v>0.49998104</v>
+        <v>0.40113701</v>
       </c>
     </row>
     <row r="70">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="G71">
-        <v>67578125</v>
+        <v>63435692</v>
       </c>
       <c r="H71">
-        <v>623318.3199999999</v>
+        <v>663987.76</v>
       </c>
       <c r="I71">
-        <v>0.8767750600000001</v>
+        <v>0.55570831</v>
       </c>
     </row>
     <row r="72">
@@ -2880,13 +2880,13 @@
         </is>
       </c>
       <c r="G72">
-        <v>12045584</v>
+        <v>14994873</v>
       </c>
       <c r="H72">
-        <v>121219.69</v>
+        <v>180236.43</v>
       </c>
       <c r="I72">
-        <v>0.91470812</v>
+        <v>0.67094807</v>
       </c>
     </row>
     <row r="73">
@@ -2915,13 +2915,13 @@
         </is>
       </c>
       <c r="G73">
-        <v>2512087</v>
+        <v>3705230.1</v>
       </c>
       <c r="H73">
-        <v>25544.363</v>
+        <v>44983.532</v>
       </c>
       <c r="I73">
-        <v>0.91521076</v>
+        <v>0.69856501</v>
       </c>
     </row>
     <row r="74">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="G74">
-        <v>6964934</v>
+        <v>6991298.6</v>
       </c>
       <c r="H74">
-        <v>62410.427</v>
+        <v>64819.838</v>
       </c>
       <c r="I74">
-        <v>0.31909114</v>
+        <v>0.18607388</v>
       </c>
     </row>
     <row r="75">
@@ -2985,13 +2985,13 @@
         </is>
       </c>
       <c r="G75">
-        <v>15617522</v>
+        <v>14707331</v>
       </c>
       <c r="H75">
-        <v>146133.28</v>
+        <v>159093.69</v>
       </c>
       <c r="I75">
-        <v>0.32652128</v>
+        <v>0.19602327</v>
       </c>
     </row>
     <row r="76">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="G76">
-        <v>2759221.4</v>
+        <v>3383771.6</v>
       </c>
       <c r="H76">
-        <v>28259.059</v>
+        <v>42142.625</v>
       </c>
       <c r="I76">
-        <v>0.33986703</v>
+        <v>0.23491785</v>
       </c>
     </row>
     <row r="77">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="G77">
-        <v>575210.97</v>
+        <v>834487.01</v>
       </c>
       <c r="H77">
-        <v>5937.9161</v>
+        <v>10510.028</v>
       </c>
       <c r="I77">
-        <v>0.3399493</v>
+        <v>0.24528982</v>
       </c>
     </row>
     <row r="78">
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="G78">
-        <v>9921383.300000001</v>
+        <v>5951213.3</v>
       </c>
       <c r="H78">
-        <v>87231.516</v>
+        <v>59151.045</v>
       </c>
       <c r="I78">
-        <v>0.40417454</v>
+        <v>0.28752594</v>
       </c>
     </row>
     <row r="79">
@@ -3125,13 +3125,13 @@
         </is>
       </c>
       <c r="G79">
-        <v>12926135</v>
+        <v>15323560</v>
       </c>
       <c r="H79">
-        <v>124726.98</v>
+        <v>175972.04</v>
       </c>
       <c r="I79">
-        <v>0.41004353</v>
+        <v>0.3007377</v>
       </c>
     </row>
     <row r="80">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="G80">
-        <v>2275085</v>
+        <v>3468448.6</v>
       </c>
       <c r="H80">
-        <v>24028.215</v>
+        <v>45884.155</v>
       </c>
       <c r="I80">
-        <v>0.42678544</v>
+        <v>0.358879</v>
       </c>
     </row>
     <row r="81">
@@ -3195,13 +3195,13 @@
         </is>
       </c>
       <c r="G81">
-        <v>474240.03</v>
+        <v>853622.15</v>
       </c>
       <c r="H81">
-        <v>5042.6362</v>
+        <v>11438.46</v>
       </c>
       <c r="I81">
-        <v>0.42685764</v>
+        <v>0.37520159</v>
       </c>
     </row>
     <row r="82">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="G83">
-        <v>111376580</v>
+        <v>101872480</v>
       </c>
       <c r="H83">
-        <v>999862.54</v>
+        <v>1013411.2</v>
       </c>
       <c r="I83">
-        <v>0.75537592</v>
+        <v>0.56641831</v>
       </c>
     </row>
     <row r="84">
@@ -3300,13 +3300,13 @@
         </is>
       </c>
       <c r="G84">
-        <v>15397746</v>
+        <v>22062980</v>
       </c>
       <c r="H84">
-        <v>152784.08</v>
+        <v>266646.96</v>
       </c>
       <c r="I84">
-        <v>0.7839284</v>
+        <v>0.67651056</v>
       </c>
     </row>
     <row r="85">
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="G85">
-        <v>3260226.8</v>
+        <v>6099095.1</v>
       </c>
       <c r="H85">
-        <v>35453.78</v>
+        <v>85362.395</v>
       </c>
       <c r="I85">
-        <v>0.8172939299999999</v>
+        <v>0.81823212</v>
       </c>
     </row>
     <row r="86">
@@ -3405,13 +3405,13 @@
         </is>
       </c>
       <c r="G87">
-        <v>186664170</v>
+        <v>171918150</v>
       </c>
       <c r="H87">
-        <v>1707338.1</v>
+        <v>1768653</v>
       </c>
       <c r="I87">
-        <v>2.6321573</v>
+        <v>1.7559034</v>
       </c>
     </row>
     <row r="88">
@@ -3440,13 +3440,13 @@
         </is>
       </c>
       <c r="G88">
-        <v>25612691</v>
+        <v>36088674</v>
       </c>
       <c r="H88">
-        <v>258532.83</v>
+        <v>446219.29</v>
       </c>
       <c r="I88">
-        <v>2.7601195</v>
+        <v>2.1594196</v>
       </c>
     </row>
     <row r="89">
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="G89">
-        <v>5379391.3</v>
+        <v>9649434.1</v>
       </c>
       <c r="H89">
-        <v>59623.346</v>
+        <v>139322.5</v>
       </c>
       <c r="I89">
-        <v>2.9167027</v>
+        <v>2.7488281</v>
       </c>
     </row>
     <row r="90">
@@ -3510,13 +3510,13 @@
         </is>
       </c>
       <c r="G90">
-        <v>5082037.4</v>
+        <v>4236505.5</v>
       </c>
       <c r="H90">
-        <v>45538.425</v>
+        <v>39278.769</v>
       </c>
       <c r="I90">
-        <v>0.15677552</v>
+        <v>0.11622303</v>
       </c>
     </row>
     <row r="91">
@@ -3545,13 +3545,13 @@
         </is>
       </c>
       <c r="G91">
-        <v>5555207.7</v>
+        <v>5893802.8</v>
       </c>
       <c r="H91">
-        <v>47746.999</v>
+        <v>53494.248</v>
       </c>
       <c r="I91">
-        <v>0.15640806</v>
+        <v>0.10599008</v>
       </c>
     </row>
     <row r="92">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="G92">
-        <v>738812.97</v>
+        <v>1127471.7</v>
       </c>
       <c r="H92">
-        <v>7020.6999</v>
+        <v>12014.848</v>
       </c>
       <c r="I92">
-        <v>0.16193259</v>
+        <v>0.12575214</v>
       </c>
     </row>
     <row r="93">
@@ -3615,13 +3615,13 @@
         </is>
       </c>
       <c r="G93">
-        <v>149793.9</v>
+        <v>268071.87</v>
       </c>
       <c r="H93">
-        <v>1585.8872</v>
+        <v>3449.136</v>
       </c>
       <c r="I93">
-        <v>0.16898884</v>
+        <v>0.15494023</v>
       </c>
     </row>
     <row r="94">
@@ -3650,13 +3650,13 @@
         </is>
       </c>
       <c r="G94">
-        <v>1992083.6</v>
+        <v>1630163.3</v>
       </c>
       <c r="H94">
-        <v>18488.948</v>
+        <v>16338.62</v>
       </c>
       <c r="I94">
-        <v>0.11041152</v>
+        <v>0.079634974</v>
       </c>
     </row>
     <row r="95">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="G95">
-        <v>2735055</v>
+        <v>2866364.8</v>
       </c>
       <c r="H95">
-        <v>24415.163</v>
+        <v>27899.139</v>
       </c>
       <c r="I95">
-        <v>0.11019388</v>
+        <v>0.07295716300000001</v>
       </c>
     </row>
     <row r="96">
@@ -3720,13 +3720,13 @@
         </is>
       </c>
       <c r="G96">
-        <v>362951.89</v>
+        <v>540890.21</v>
       </c>
       <c r="H96">
-        <v>3573.1403</v>
+        <v>6150.2595</v>
       </c>
       <c r="I96">
-        <v>0.11396915</v>
+        <v>0.085734387</v>
       </c>
     </row>
     <row r="97">
@@ -3755,13 +3755,13 @@
         </is>
       </c>
       <c r="G97">
-        <v>73393.571</v>
+        <v>126065.6</v>
       </c>
       <c r="H97">
-        <v>803.67431</v>
+        <v>1732.1494</v>
       </c>
       <c r="I97">
-        <v>0.1187974</v>
+        <v>0.10416848</v>
       </c>
     </row>
     <row r="98">
@@ -3825,13 +3825,13 @@
         </is>
       </c>
       <c r="G99">
-        <v>17940201</v>
+        <v>17591385</v>
       </c>
       <c r="H99">
-        <v>161445.09</v>
+        <v>174898.58</v>
       </c>
       <c r="I99">
-        <v>0.08879468</v>
+        <v>0.059412491</v>
       </c>
     </row>
     <row r="100">
@@ -3860,13 +3860,13 @@
         </is>
       </c>
       <c r="G100">
-        <v>1577369.6</v>
+        <v>1771490.3</v>
       </c>
       <c r="H100">
-        <v>14628.322</v>
+        <v>18512.944</v>
       </c>
       <c r="I100">
-        <v>0.090188939</v>
+        <v>0.063478858</v>
       </c>
     </row>
     <row r="101">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="G101">
-        <v>251115.65</v>
+        <v>405810.25</v>
       </c>
       <c r="H101">
-        <v>2609.1445</v>
+        <v>5124.4005</v>
       </c>
       <c r="I101">
-        <v>0.093817317</v>
+        <v>0.076253375</v>
       </c>
     </row>
     <row r="102">
@@ -3965,13 +3965,13 @@
         </is>
       </c>
       <c r="G103">
-        <v>6292460.3</v>
+        <v>6172758.5</v>
       </c>
       <c r="H103">
-        <v>58810.937</v>
+        <v>66112.806</v>
       </c>
       <c r="I103">
-        <v>0.04382603</v>
+        <v>0.02917527</v>
       </c>
     </row>
     <row r="104">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="G104">
-        <v>552900.13</v>
+        <v>620415.46</v>
       </c>
       <c r="H104">
-        <v>5324.2336</v>
+        <v>6954.8682</v>
       </c>
       <c r="I104">
-        <v>0.044497012</v>
+        <v>0.031135684</v>
       </c>
     </row>
     <row r="105">
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="G105">
-        <v>87855.084</v>
+        <v>140041.53</v>
       </c>
       <c r="H105">
-        <v>945.09856</v>
+        <v>1888.6656</v>
       </c>
       <c r="I105">
-        <v>0.046230877</v>
+        <v>0.036939289</v>
       </c>
     </row>
     <row r="106">
@@ -4070,13 +4070,13 @@
         </is>
       </c>
       <c r="G106">
-        <v>5871755</v>
+        <v>4689599.5</v>
       </c>
       <c r="H106">
-        <v>52614.818</v>
+        <v>43479.631</v>
       </c>
       <c r="I106">
-        <v>0.10556478</v>
+        <v>0.070709441</v>
       </c>
     </row>
     <row r="107">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="G107">
-        <v>11105447</v>
+        <v>11951717</v>
       </c>
       <c r="H107">
-        <v>107816.67</v>
+        <v>137777.67</v>
       </c>
       <c r="I107">
-        <v>0.10911508</v>
+        <v>0.079248576</v>
       </c>
     </row>
     <row r="108">
@@ -4140,13 +4140,13 @@
         </is>
       </c>
       <c r="G108">
-        <v>975312.3199999999</v>
+        <v>1198878.9</v>
       </c>
       <c r="H108">
-        <v>9752.9067</v>
+        <v>14423.31</v>
       </c>
       <c r="I108">
-        <v>0.11076191</v>
+        <v>0.084482428</v>
       </c>
     </row>
     <row r="109">
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="G109">
-        <v>154754.75</v>
+        <v>267073.18</v>
       </c>
       <c r="H109">
-        <v>1723.6552</v>
+        <v>3849.4061</v>
       </c>
       <c r="I109">
-        <v>0.11499926</v>
+        <v>0.09917155</v>
       </c>
     </row>
     <row r="110">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="G110">
-        <v>16498934</v>
+        <v>15252813</v>
       </c>
       <c r="H110">
-        <v>141236.23</v>
+        <v>119817.55</v>
       </c>
       <c r="I110">
-        <v>0.091033104</v>
+        <v>0.061673329</v>
       </c>
     </row>
     <row r="111">
@@ -4245,13 +4245,13 @@
         </is>
       </c>
       <c r="G111">
-        <v>6666178.8</v>
+        <v>7655665.5</v>
       </c>
       <c r="H111">
-        <v>67046.924</v>
+        <v>94449.875</v>
       </c>
       <c r="I111">
-        <v>0.09297061299999999</v>
+        <v>0.07159454</v>
       </c>
     </row>
     <row r="112">
@@ -4280,13 +4280,13 @@
         </is>
       </c>
       <c r="G112">
-        <v>585042.91</v>
+        <v>766088.39</v>
       </c>
       <c r="H112">
-        <v>6059.6085</v>
+        <v>9843.6901</v>
       </c>
       <c r="I112">
-        <v>0.09434493100000001</v>
+        <v>0.076232801</v>
       </c>
     </row>
     <row r="113">
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="G113">
-        <v>92646.64999999999</v>
+        <v>168235.97</v>
       </c>
       <c r="H113">
-        <v>1065.9257</v>
+        <v>2581.0825</v>
       </c>
       <c r="I113">
-        <v>0.097855635</v>
+        <v>0.08851410999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="G115">
-        <v>11525697</v>
+        <v>11047072</v>
       </c>
       <c r="H115">
-        <v>103294.88</v>
+        <v>106317.39</v>
       </c>
       <c r="I115">
-        <v>0.021416549</v>
+        <v>0.016249189</v>
       </c>
     </row>
     <row r="116">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="G116">
-        <v>1142987</v>
+        <v>1549547.3</v>
       </c>
       <c r="H116">
-        <v>11903.371</v>
+        <v>20424.941</v>
       </c>
       <c r="I116">
-        <v>0.022383455</v>
+        <v>0.020288075</v>
       </c>
     </row>
     <row r="117">
@@ -4455,13 +4455,13 @@
         </is>
       </c>
       <c r="G117">
-        <v>116095.82</v>
+        <v>188160.41</v>
       </c>
       <c r="H117">
-        <v>1263.1135</v>
+        <v>2667.4437</v>
       </c>
       <c r="I117">
-        <v>0.022812891</v>
+        <v>0.022067594</v>
       </c>
     </row>
     <row r="118">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="G119">
-        <v>118898390</v>
+        <v>114231220</v>
       </c>
       <c r="H119">
-        <v>1109716.8</v>
+        <v>1192961.8</v>
       </c>
       <c r="I119">
-        <v>0.31898384</v>
+        <v>0.24008539</v>
       </c>
     </row>
     <row r="120">
@@ -4560,13 +4560,13 @@
         </is>
       </c>
       <c r="G120">
-        <v>11773676</v>
+        <v>15734254</v>
       </c>
       <c r="H120">
-        <v>127049.26</v>
+        <v>221739.62</v>
       </c>
       <c r="I120">
-        <v>0.33353393</v>
+        <v>0.29657203</v>
       </c>
     </row>
     <row r="121">
@@ -4595,13 +4595,13 @@
         </is>
       </c>
       <c r="G121">
-        <v>1195192.4</v>
+        <v>1901782.6</v>
       </c>
       <c r="H121">
-        <v>13463.123</v>
+        <v>28777.881</v>
       </c>
       <c r="I121">
-        <v>0.3400279</v>
+        <v>0.32218462</v>
       </c>
     </row>
     <row r="122">
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="G122">
-        <v>82823980</v>
+        <v>22339777</v>
       </c>
       <c r="H122">
-        <v>742157.79</v>
+        <v>207123.29</v>
       </c>
       <c r="I122">
-        <v>1.3631674</v>
+        <v>1.057584</v>
       </c>
     </row>
     <row r="123">
@@ -4665,13 +4665,13 @@
         </is>
       </c>
       <c r="G123">
-        <v>309770820</v>
+        <v>351205480</v>
       </c>
       <c r="H123">
-        <v>2985646.4</v>
+        <v>3912809</v>
       </c>
       <c r="I123">
-        <v>1.4228744</v>
+        <v>1.221889</v>
       </c>
     </row>
     <row r="124">
@@ -4700,13 +4700,13 @@
         </is>
       </c>
       <c r="G124">
-        <v>30527708</v>
+        <v>47029329</v>
       </c>
       <c r="H124">
-        <v>338608.82</v>
+        <v>697809.79</v>
       </c>
       <c r="I124">
-        <v>1.4962232</v>
+        <v>1.5330982</v>
       </c>
     </row>
     <row r="125">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="G125">
-        <v>3093370.7</v>
+        <v>5641291</v>
       </c>
       <c r="H125">
-        <v>35810.15</v>
+        <v>89854.683</v>
       </c>
       <c r="I125">
-        <v>1.5298597</v>
+        <v>1.6885893</v>
       </c>
     </row>
     <row r="126">
@@ -4770,13 +4770,13 @@
         </is>
       </c>
       <c r="G126">
-        <v>60788271</v>
+        <v>59592939</v>
       </c>
       <c r="H126">
-        <v>513897.22</v>
+        <v>445989.93</v>
       </c>
       <c r="I126">
-        <v>0.20419392</v>
+        <v>0.13907897</v>
       </c>
     </row>
     <row r="127">
@@ -4805,13 +4805,13 @@
         </is>
       </c>
       <c r="G127">
-        <v>26413067</v>
+        <v>26741547</v>
       </c>
       <c r="H127">
-        <v>254442.83</v>
+        <v>294609.15</v>
       </c>
       <c r="I127">
-        <v>0.20692166</v>
+        <v>0.15350736</v>
       </c>
     </row>
     <row r="128">
@@ -4840,13 +4840,13 @@
         </is>
       </c>
       <c r="G128">
-        <v>2552798.8</v>
+        <v>3291519</v>
       </c>
       <c r="H128">
-        <v>28184.242</v>
+        <v>47604.393</v>
       </c>
       <c r="I128">
-        <v>0.21571302</v>
+        <v>0.18519974</v>
       </c>
     </row>
     <row r="129">
@@ -4875,13 +4875,13 @@
         </is>
       </c>
       <c r="G129">
-        <v>256740.9</v>
+        <v>384872.67</v>
       </c>
       <c r="H129">
-        <v>2965.8599</v>
+        <v>6013.3816</v>
       </c>
       <c r="I129">
-        <v>0.22001097</v>
+        <v>0.20346759</v>
       </c>
     </row>
     <row r="130">
@@ -4945,13 +4945,13 @@
         </is>
       </c>
       <c r="G131">
-        <v>67453049</v>
+        <v>67491892</v>
       </c>
       <c r="H131">
-        <v>599710.76</v>
+        <v>610990.5699999999</v>
       </c>
       <c r="I131">
-        <v>0.22540586</v>
+        <v>0.14210888</v>
       </c>
     </row>
     <row r="132">
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="G132">
-        <v>20196054</v>
+        <v>19654437</v>
       </c>
       <c r="H132">
-        <v>201323.99</v>
+        <v>231397.81</v>
       </c>
       <c r="I132">
-        <v>0.2313007</v>
+        <v>0.16244175</v>
       </c>
     </row>
     <row r="133">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="G133">
-        <v>2140902.2</v>
+        <v>2643676.1</v>
       </c>
       <c r="H133">
-        <v>24454.328</v>
+        <v>40737.858</v>
       </c>
       <c r="I133">
-        <v>0.24131148</v>
+        <v>0.19517074</v>
       </c>
     </row>
     <row r="134">
@@ -5085,13 +5085,13 @@
         </is>
       </c>
       <c r="G135">
-        <v>100551760</v>
+        <v>101057740</v>
       </c>
       <c r="H135">
-        <v>928914.46</v>
+        <v>993897.77</v>
       </c>
       <c r="I135">
-        <v>0.5095180499999999</v>
+        <v>0.31162305</v>
       </c>
     </row>
     <row r="136">
@@ -5120,13 +5120,13 @@
         </is>
       </c>
       <c r="G136">
-        <v>30032641</v>
+        <v>28892417</v>
       </c>
       <c r="H136">
-        <v>309366.17</v>
+        <v>362733.13</v>
       </c>
       <c r="I136">
-        <v>0.52280417</v>
+        <v>0.35237391</v>
       </c>
     </row>
     <row r="137">
@@ -5155,13 +5155,13 @@
         </is>
       </c>
       <c r="G137">
-        <v>3172226.7</v>
+        <v>3806474.4</v>
       </c>
       <c r="H137">
-        <v>37285.158</v>
+        <v>61912.875</v>
       </c>
       <c r="I137">
-        <v>0.54568735</v>
+        <v>0.41986242</v>
       </c>
     </row>
     <row r="138">
@@ -5190,13 +5190,13 @@
         </is>
       </c>
       <c r="G138">
-        <v>116368620</v>
+        <v>74422469</v>
       </c>
       <c r="H138">
-        <v>1042740</v>
+        <v>690008.0600000001</v>
       </c>
       <c r="I138">
-        <v>1.2705645</v>
+        <v>0.77719217</v>
       </c>
     </row>
     <row r="139">
@@ -5225,13 +5225,13 @@
         </is>
       </c>
       <c r="G139">
-        <v>152042900</v>
+        <v>185451000</v>
       </c>
       <c r="H139">
-        <v>1449272.8</v>
+        <v>1957519</v>
       </c>
       <c r="I139">
-        <v>1.3379716</v>
+        <v>0.9215757</v>
       </c>
     </row>
     <row r="140">
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="G140">
-        <v>45206739</v>
+        <v>51839033</v>
       </c>
       <c r="H140">
-        <v>477613.51</v>
+        <v>685886.27</v>
       </c>
       <c r="I140">
-        <v>1.3749636</v>
+        <v>1.0386186</v>
       </c>
     </row>
     <row r="141">
@@ -5295,13 +5295,13 @@
         </is>
       </c>
       <c r="G141">
-        <v>4743036</v>
+        <v>6648798.7</v>
       </c>
       <c r="H141">
-        <v>56958.894</v>
+        <v>112999.12</v>
       </c>
       <c r="I141">
-        <v>1.4408384</v>
+        <v>1.2454421</v>
       </c>
     </row>
     <row r="142">
@@ -5330,13 +5330,13 @@
         </is>
       </c>
       <c r="G142">
-        <v>56030391</v>
+        <v>63772973</v>
       </c>
       <c r="H142">
-        <v>486115</v>
+        <v>503701.74</v>
       </c>
       <c r="I142">
-        <v>0.7228669</v>
+        <v>0.28916086</v>
       </c>
     </row>
     <row r="143">
@@ -5365,13 +5365,13 @@
         </is>
       </c>
       <c r="G143">
-        <v>47357775</v>
+        <v>42269015</v>
       </c>
       <c r="H143">
-        <v>456367.05</v>
+        <v>461380.59</v>
       </c>
       <c r="I143">
-        <v>0.75131673</v>
+        <v>0.34106977</v>
       </c>
     </row>
     <row r="144">
@@ -5400,13 +5400,13 @@
         </is>
       </c>
       <c r="G144">
-        <v>13922068</v>
+        <v>11328220</v>
       </c>
       <c r="H144">
-        <v>147443.81</v>
+        <v>151454.85</v>
       </c>
       <c r="I144">
-        <v>0.76874137</v>
+        <v>0.37579432</v>
       </c>
     </row>
     <row r="145">
@@ -5435,13 +5435,13 @@
         </is>
       </c>
       <c r="G145">
-        <v>1435605.8</v>
+        <v>1375631</v>
       </c>
       <c r="H145">
-        <v>17227.861</v>
+        <v>23492.326</v>
       </c>
       <c r="I145">
-        <v>0.80187756</v>
+        <v>0.44193924</v>
       </c>
     </row>
     <row r="146">
@@ -5505,13 +5505,13 @@
         </is>
       </c>
       <c r="G147">
-        <v>309482060</v>
+        <v>281943700</v>
       </c>
       <c r="H147">
-        <v>2773535.3</v>
+        <v>2722755.7</v>
       </c>
       <c r="I147">
-        <v>0.53349191</v>
+        <v>0.42592921</v>
       </c>
     </row>
     <row r="148">
@@ -5540,13 +5540,13 @@
         </is>
       </c>
       <c r="G148">
-        <v>21688851</v>
+        <v>43426683</v>
       </c>
       <c r="H148">
-        <v>214335.05</v>
+        <v>505995.38</v>
       </c>
       <c r="I148">
-        <v>0.5615202500000001</v>
+        <v>0.54128224</v>
       </c>
     </row>
     <row r="149">
@@ -5575,13 +5575,13 @@
         </is>
       </c>
       <c r="G149">
-        <v>6987995.2</v>
+        <v>12788524</v>
       </c>
       <c r="H149">
-        <v>76342.56200000001</v>
+        <v>184828.65</v>
       </c>
       <c r="I149">
-        <v>0.57553373</v>
+        <v>0.60148032</v>
       </c>
     </row>
     <row r="150">
@@ -5645,13 +5645,13 @@
         </is>
       </c>
       <c r="G151">
-        <v>363471130</v>
+        <v>332973860</v>
       </c>
       <c r="H151">
-        <v>3341421.1</v>
+        <v>3385037.1</v>
       </c>
       <c r="I151">
-        <v>1.0554266</v>
+        <v>0.8116638</v>
       </c>
     </row>
     <row r="152">
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="G152">
-        <v>25301135</v>
+        <v>49638334</v>
       </c>
       <c r="H152">
-        <v>257328.23</v>
+        <v>610358.34</v>
       </c>
       <c r="I152">
-        <v>1.1153082</v>
+        <v>1.0415004</v>
       </c>
     </row>
     <row r="153">
@@ -5715,13 +5715,13 @@
         </is>
       </c>
       <c r="G153">
-        <v>8114211.2</v>
+        <v>14274282</v>
       </c>
       <c r="H153">
-        <v>90727.33500000001</v>
+        <v>214116.43</v>
       </c>
       <c r="I153">
-        <v>1.1437792</v>
+        <v>1.1543037</v>
       </c>
     </row>
     <row r="154">
@@ -5750,13 +5750,13 @@
         </is>
       </c>
       <c r="G154">
-        <v>105343050</v>
+        <v>104219530</v>
       </c>
       <c r="H154">
-        <v>943943.5699999999</v>
+        <v>966271.5699999999</v>
       </c>
       <c r="I154">
-        <v>1.1380015</v>
+        <v>0.80249443</v>
       </c>
     </row>
     <row r="155">
@@ -5785,13 +5785,13 @@
         </is>
       </c>
       <c r="G155">
-        <v>219571490</v>
+        <v>203766380</v>
       </c>
       <c r="H155">
-        <v>2035529.2</v>
+        <v>2106959.8</v>
       </c>
       <c r="I155">
-        <v>1.163814</v>
+        <v>0.84556381</v>
       </c>
     </row>
     <row r="156">
@@ -5820,13 +5820,13 @@
         </is>
       </c>
       <c r="G156">
-        <v>15083209</v>
+        <v>28809647</v>
       </c>
       <c r="H156">
-        <v>155908.77</v>
+        <v>363715.49</v>
       </c>
       <c r="I156">
-        <v>1.2333369</v>
+        <v>1.0920072</v>
       </c>
     </row>
     <row r="157">
@@ -5855,13 +5855,13 @@
         </is>
       </c>
       <c r="G157">
-        <v>4795458.8</v>
+        <v>7997645</v>
       </c>
       <c r="H157">
-        <v>54122.351</v>
+        <v>120844.23</v>
       </c>
       <c r="I157">
-        <v>1.2630026</v>
+        <v>1.2012205</v>
       </c>
     </row>
     <row r="158">
@@ -5890,13 +5890,13 @@
         </is>
       </c>
       <c r="G158">
-        <v>202738680</v>
+        <v>173321670</v>
       </c>
       <c r="H158">
-        <v>1757480.1</v>
+        <v>1506638.5</v>
       </c>
       <c r="I158">
-        <v>2.9089038</v>
+        <v>1.9673109</v>
       </c>
     </row>
     <row r="159">
@@ -5925,13 +5925,13 @@
         </is>
       </c>
       <c r="G159">
-        <v>244548580</v>
+        <v>252905490</v>
       </c>
       <c r="H159">
-        <v>2277876.5</v>
+        <v>2643369.4</v>
       </c>
       <c r="I159">
-        <v>2.9405286</v>
+        <v>2.072481</v>
       </c>
     </row>
     <row r="160">
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="G160">
-        <v>16540724</v>
+        <v>33743631</v>
       </c>
       <c r="H160">
-        <v>173270.75</v>
+        <v>435665.72</v>
       </c>
       <c r="I160">
-        <v>3.1776391</v>
+        <v>2.844068</v>
       </c>
     </row>
     <row r="161">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="G161">
-        <v>5211893.3</v>
+        <v>9069081</v>
       </c>
       <c r="H161">
-        <v>59207.32</v>
+        <v>137728.86</v>
       </c>
       <c r="I161">
-        <v>3.2702987</v>
+        <v>3.191646</v>
       </c>
     </row>
     <row r="162">
@@ -6065,13 +6065,13 @@
         </is>
       </c>
       <c r="G163">
-        <v>269350520</v>
+        <v>257383050</v>
       </c>
       <c r="H163">
-        <v>2392448.5</v>
+        <v>2486143.5</v>
       </c>
       <c r="I163">
-        <v>1.3647596</v>
+        <v>0.9376985</v>
       </c>
     </row>
     <row r="164">
@@ -6100,13 +6100,13 @@
         </is>
       </c>
       <c r="G164">
-        <v>46811171</v>
+        <v>54995696</v>
       </c>
       <c r="H164">
-        <v>403035.98</v>
+        <v>489297.44</v>
       </c>
       <c r="I164">
-        <v>1.3567383</v>
+        <v>0.91421178</v>
       </c>
     </row>
     <row r="165">
@@ -6135,13 +6135,13 @@
         </is>
       </c>
       <c r="G165">
-        <v>3928785.5</v>
+        <v>7711734.6</v>
       </c>
       <c r="H165">
-        <v>39846.657</v>
+        <v>89486.391</v>
       </c>
       <c r="I165">
-        <v>1.4626263</v>
+        <v>1.2416171</v>
       </c>
     </row>
     <row r="166">
@@ -6205,13 +6205,13 @@
         </is>
       </c>
       <c r="G167">
-        <v>114121500</v>
+        <v>108726410</v>
       </c>
       <c r="H167">
-        <v>1011063.3</v>
+        <v>1047595.3</v>
       </c>
       <c r="I167">
-        <v>1.0895607</v>
+        <v>0.6710967799999999</v>
       </c>
     </row>
     <row r="168">
@@ -6240,13 +6240,13 @@
         </is>
       </c>
       <c r="G168">
-        <v>19897609</v>
+        <v>23848774</v>
       </c>
       <c r="H168">
-        <v>171206.1</v>
+        <v>211516.92</v>
       </c>
       <c r="I168">
-        <v>1.0849049</v>
+        <v>0.66948653</v>
       </c>
     </row>
     <row r="169">
@@ -6275,13 +6275,13 @@
         </is>
       </c>
       <c r="G169">
-        <v>1628668.5</v>
+        <v>3072595.7</v>
       </c>
       <c r="H169">
-        <v>16642.288</v>
+        <v>35892.349</v>
       </c>
       <c r="I169">
-        <v>1.1682933</v>
+        <v>0.89613339</v>
       </c>
     </row>
     <row r="170">
@@ -6310,13 +6310,13 @@
         </is>
       </c>
       <c r="G170">
-        <v>27247583</v>
+        <v>17540788</v>
       </c>
       <c r="H170">
-        <v>244156.41</v>
+        <v>162629.45</v>
       </c>
       <c r="I170">
-        <v>1.6246421</v>
+        <v>0.97843329</v>
       </c>
     </row>
     <row r="171">
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="G171">
-        <v>88715365</v>
+        <v>92144590</v>
       </c>
       <c r="H171">
-        <v>792171.0699999999</v>
+        <v>905802.24</v>
       </c>
       <c r="I171">
-        <v>1.6431218</v>
+        <v>0.96453113</v>
       </c>
     </row>
     <row r="172">
@@ -6380,13 +6380,13 @@
         </is>
       </c>
       <c r="G172">
-        <v>15501804</v>
+        <v>20543739</v>
       </c>
       <c r="H172">
-        <v>134741.92</v>
+        <v>187106.6</v>
       </c>
       <c r="I172">
-        <v>1.6376402</v>
+        <v>0.97959463</v>
       </c>
     </row>
     <row r="173">
@@ -6415,13 +6415,13 @@
         </is>
       </c>
       <c r="G173">
-        <v>1243370.3</v>
+        <v>2479005.3</v>
       </c>
       <c r="H173">
-        <v>12897.259</v>
+        <v>29871.844</v>
       </c>
       <c r="I173">
-        <v>1.7751757</v>
+        <v>1.3162695</v>
       </c>
     </row>
     <row r="174">
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="G174">
-        <v>49571682</v>
+        <v>50281782</v>
       </c>
       <c r="H174">
-        <v>421129.65</v>
+        <v>386895.39</v>
       </c>
       <c r="I174">
-        <v>1.8890628</v>
+        <v>0.82077832</v>
       </c>
     </row>
     <row r="175">
@@ -6485,13 +6485,13 @@
         </is>
       </c>
       <c r="G175">
-        <v>46920851</v>
+        <v>43993396</v>
       </c>
       <c r="H175">
-        <v>413484.33</v>
+        <v>426441.37</v>
       </c>
       <c r="I175">
-        <v>1.8599255</v>
+        <v>0.79473455</v>
       </c>
     </row>
     <row r="176">
@@ -6520,13 +6520,13 @@
         </is>
       </c>
       <c r="G176">
-        <v>8223344.7</v>
+        <v>9978456.1</v>
       </c>
       <c r="H176">
-        <v>70787.649</v>
+        <v>90778.568</v>
       </c>
       <c r="I176">
-        <v>1.8573656</v>
+        <v>0.8258506</v>
       </c>
     </row>
     <row r="177">
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="G177">
-        <v>638293.73</v>
+        <v>1100538.1</v>
       </c>
       <c r="H177">
-        <v>6619.4974</v>
+        <v>13349.211</v>
       </c>
       <c r="I177">
-        <v>2.0226457</v>
+        <v>1.0947294</v>
       </c>
     </row>
     <row r="178">
@@ -6625,13 +6625,13 @@
         </is>
       </c>
       <c r="G179">
-        <v>87099351</v>
+        <v>81926542</v>
       </c>
       <c r="H179">
-        <v>778496.45</v>
+        <v>794627.28</v>
       </c>
       <c r="I179">
-        <v>0.49203221</v>
+        <v>0.29443034</v>
       </c>
     </row>
     <row r="180">
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="G180">
-        <v>6590455.1</v>
+        <v>10388794</v>
       </c>
       <c r="H180">
-        <v>56809.384</v>
+        <v>101064.53</v>
       </c>
       <c r="I180">
-        <v>0.48903902</v>
+        <v>0.29818807</v>
       </c>
     </row>
     <row r="181">
@@ -6695,13 +6695,13 @@
         </is>
       </c>
       <c r="G181">
-        <v>1244441.1</v>
+        <v>2618911.3</v>
       </c>
       <c r="H181">
-        <v>10687.798</v>
+        <v>25058.34</v>
       </c>
       <c r="I181">
-        <v>0.49188058</v>
+        <v>0.32096208</v>
       </c>
     </row>
     <row r="182">
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="G183">
-        <v>63691450</v>
+        <v>59888714</v>
       </c>
       <c r="H183">
-        <v>584870.71</v>
+        <v>616638.14</v>
       </c>
       <c r="I183">
-        <v>0.5684384</v>
+        <v>0.3217203</v>
       </c>
     </row>
     <row r="184">
@@ -6800,13 +6800,13 @@
         </is>
       </c>
       <c r="G184">
-        <v>4825677.4</v>
+        <v>7622760.3</v>
       </c>
       <c r="H184">
-        <v>42814.92</v>
+        <v>78228.97199999999</v>
       </c>
       <c r="I184">
-        <v>0.56529847</v>
+        <v>0.3274353</v>
       </c>
     </row>
     <row r="185">
@@ -6835,13 +6835,13 @@
         </is>
       </c>
       <c r="G185">
-        <v>910869.53</v>
+        <v>1916522.7</v>
       </c>
       <c r="H185">
-        <v>8067.1421</v>
+        <v>19531.565</v>
       </c>
       <c r="I185">
-        <v>0.56882299</v>
+        <v>0.3536641</v>
       </c>
     </row>
     <row r="186">
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="G186">
-        <v>11652486</v>
+        <v>8437564</v>
       </c>
       <c r="H186">
-        <v>104414</v>
+        <v>78228.891</v>
       </c>
       <c r="I186">
-        <v>1.0655077</v>
+        <v>0.5388012</v>
       </c>
     </row>
     <row r="187">
@@ -6905,13 +6905,13 @@
         </is>
       </c>
       <c r="G187">
-        <v>72231932</v>
+        <v>70674593</v>
       </c>
       <c r="H187">
-        <v>679671.08</v>
+        <v>769382.4</v>
       </c>
       <c r="I187">
-        <v>1.0960912</v>
+        <v>0.58840427</v>
       </c>
     </row>
     <row r="188">
@@ -6940,13 +6940,13 @@
         </is>
       </c>
       <c r="G188">
-        <v>5480475.4</v>
+        <v>9026872</v>
       </c>
       <c r="H188">
-        <v>49921.236</v>
+        <v>97555.632</v>
       </c>
       <c r="I188">
-        <v>1.0903934</v>
+        <v>0.60239996</v>
       </c>
     </row>
     <row r="189">
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="G189">
-        <v>1033953</v>
+        <v>2259817.2</v>
       </c>
       <c r="H189">
-        <v>9420.024299999999</v>
+        <v>24488.095</v>
       </c>
       <c r="I189">
-        <v>1.0981596</v>
+        <v>0.65412921</v>
       </c>
     </row>
     <row r="190">
@@ -7010,13 +7010,13 @@
         </is>
       </c>
       <c r="G190">
-        <v>54099625</v>
+        <v>49331975</v>
       </c>
       <c r="H190">
-        <v>457994.78</v>
+        <v>376349.92</v>
       </c>
       <c r="I190">
-        <v>1.1105731</v>
+        <v>0.50535312</v>
       </c>
     </row>
     <row r="191">
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="G191">
-        <v>40303237</v>
+        <v>41990777</v>
       </c>
       <c r="H191">
-        <v>382135.41</v>
+        <v>473009.46</v>
       </c>
       <c r="I191">
-        <v>1.1159304</v>
+        <v>0.55848549</v>
       </c>
     </row>
     <row r="192">
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="G192">
-        <v>3065609.9</v>
+        <v>5385709.7</v>
       </c>
       <c r="H192">
-        <v>28209.708</v>
+        <v>60050.526</v>
       </c>
       <c r="I192">
-        <v>1.1114981</v>
+        <v>0.57645749</v>
       </c>
     </row>
     <row r="193">
@@ -7115,13 +7115,13 @@
         </is>
       </c>
       <c r="G193">
-        <v>577744.3</v>
+        <v>1337743</v>
       </c>
       <c r="H193">
-        <v>5334.5841</v>
+        <v>15148.758</v>
       </c>
       <c r="I193">
-        <v>1.1205659</v>
+        <v>0.62923755</v>
       </c>
     </row>
     <row r="194">
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="G195">
-        <v>110055330</v>
+        <v>103217410</v>
       </c>
       <c r="H195">
-        <v>1159084.1</v>
+        <v>1210432</v>
       </c>
       <c r="I195">
-        <v>0.25051771</v>
+        <v>0.18466983</v>
       </c>
     </row>
     <row r="196">
@@ -7220,13 +7220,13 @@
         </is>
       </c>
       <c r="G196">
-        <v>5811132.9</v>
+        <v>11339742</v>
       </c>
       <c r="H196">
-        <v>64329.196</v>
+        <v>152849.18</v>
       </c>
       <c r="I196">
-        <v>0.26547496</v>
+        <v>0.23053281</v>
       </c>
     </row>
     <row r="197">
@@ -7255,13 +7255,13 @@
         </is>
       </c>
       <c r="G197">
-        <v>522494.01</v>
+        <v>1831804</v>
       </c>
       <c r="H197">
-        <v>5591.7624</v>
+        <v>24155.308</v>
       </c>
       <c r="I197">
-        <v>0.26315815</v>
+        <v>0.24545882</v>
       </c>
     </row>
     <row r="198">
@@ -7325,13 +7325,13 @@
         </is>
       </c>
       <c r="G199">
-        <v>243091130</v>
+        <v>228488390</v>
       </c>
       <c r="H199">
-        <v>2604347.5</v>
+        <v>2799262.7</v>
       </c>
       <c r="I199">
-        <v>0.88051511</v>
+        <v>0.62550504</v>
       </c>
     </row>
     <row r="200">
@@ -7360,13 +7360,13 @@
         </is>
       </c>
       <c r="G200">
-        <v>12777376</v>
+        <v>24537726</v>
       </c>
       <c r="H200">
-        <v>143696.99</v>
+        <v>342614.03</v>
       </c>
       <c r="I200">
-        <v>0.9369423</v>
+        <v>0.78247492</v>
       </c>
     </row>
     <row r="201">
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="G201">
-        <v>1151974.9</v>
+        <v>3994358.6</v>
       </c>
       <c r="H201">
-        <v>12549.055</v>
+        <v>54561.352</v>
       </c>
       <c r="I201">
-        <v>0.93027633</v>
+        <v>0.84780883</v>
       </c>
     </row>
     <row r="202">
@@ -7430,13 +7430,13 @@
         </is>
       </c>
       <c r="G202">
-        <v>51800287</v>
+        <v>19987199</v>
       </c>
       <c r="H202">
-        <v>554525.71</v>
+        <v>222961.08</v>
       </c>
       <c r="I202">
-        <v>0.98381977</v>
+        <v>0.75588867</v>
       </c>
     </row>
     <row r="203">
@@ -7465,13 +7465,13 @@
         </is>
       </c>
       <c r="G203">
-        <v>157407000</v>
+        <v>176832090</v>
       </c>
       <c r="H203">
-        <v>1639198</v>
+        <v>2164475.9</v>
       </c>
       <c r="I203">
-        <v>0.9973115299999999</v>
+        <v>0.8001803199999999</v>
       </c>
     </row>
     <row r="204">
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="G204">
-        <v>8168351.6</v>
+        <v>18291920</v>
       </c>
       <c r="H204">
-        <v>89186.717</v>
+        <v>253067.37</v>
       </c>
       <c r="I204">
-        <v>1.0638519</v>
+        <v>1.0088542</v>
       </c>
     </row>
     <row r="205">
@@ -7535,13 +7535,13 @@
         </is>
       </c>
       <c r="G205">
-        <v>742099.8</v>
+        <v>3006526.2</v>
       </c>
       <c r="H205">
-        <v>7877.5091</v>
+        <v>40789.096</v>
       </c>
       <c r="I205">
-        <v>1.0634303</v>
+        <v>1.129163</v>
       </c>
     </row>
     <row r="206">
@@ -7570,13 +7570,13 @@
         </is>
       </c>
       <c r="G206">
-        <v>88721130</v>
+        <v>92772713</v>
       </c>
       <c r="H206">
-        <v>836140.38</v>
+        <v>819131.3</v>
       </c>
       <c r="I206">
-        <v>0.8771468</v>
+        <v>0.47892776</v>
       </c>
     </row>
     <row r="207">
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="G207">
-        <v>76325572</v>
+        <v>68628843</v>
       </c>
       <c r="H207">
-        <v>763306.37</v>
+        <v>812545.42</v>
       </c>
       <c r="I207">
-        <v>0.84304439</v>
+        <v>0.50658584</v>
       </c>
     </row>
     <row r="208">
@@ -7640,13 +7640,13 @@
         </is>
       </c>
       <c r="G208">
-        <v>3903184.3</v>
+        <v>6785821.2</v>
       </c>
       <c r="H208">
-        <v>40923.277</v>
+        <v>90086.322</v>
       </c>
       <c r="I208">
-        <v>0.90010184</v>
+        <v>0.6373461499999999</v>
       </c>
     </row>
     <row r="209">
@@ -7675,13 +7675,13 @@
         </is>
       </c>
       <c r="G209">
-        <v>357189.14</v>
+        <v>1119691.7</v>
       </c>
       <c r="H209">
-        <v>3661.8141</v>
+        <v>14704.832</v>
       </c>
       <c r="I209">
-        <v>0.90700004</v>
+        <v>0.73626116</v>
       </c>
     </row>
     <row r="210">
@@ -7745,13 +7745,13 @@
         </is>
       </c>
       <c r="G211">
-        <v>205574670</v>
+        <v>191607860</v>
       </c>
       <c r="H211">
-        <v>2151585.7</v>
+        <v>2184479.9</v>
       </c>
       <c r="I211">
-        <v>0.42321911</v>
+        <v>0.38629726</v>
       </c>
     </row>
     <row r="212">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="G212">
-        <v>22542521</v>
+        <v>33970470</v>
       </c>
       <c r="H212">
-        <v>219244.8</v>
+        <v>400521.08</v>
       </c>
       <c r="I212">
-        <v>0.40328044</v>
+        <v>0.38823092</v>
       </c>
     </row>
     <row r="213">
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="G213">
-        <v>1242955.6</v>
+        <v>3781816.2</v>
       </c>
       <c r="H213">
-        <v>12667.688</v>
+        <v>49730.944</v>
       </c>
       <c r="I213">
-        <v>0.4302091</v>
+        <v>0.49666512</v>
       </c>
     </row>
     <row r="214">
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="G215">
-        <v>292060180</v>
+        <v>272171410</v>
       </c>
       <c r="H215">
-        <v>3075490.9</v>
+        <v>3184350.7</v>
       </c>
       <c r="I215">
-        <v>0.99101534</v>
+        <v>0.88923352</v>
       </c>
     </row>
     <row r="216">
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="G216">
-        <v>32332623</v>
+        <v>48728529</v>
       </c>
       <c r="H216">
-        <v>317033.32</v>
+        <v>580596.24</v>
       </c>
       <c r="I216">
-        <v>0.94580486</v>
+        <v>0.90434302</v>
       </c>
     </row>
     <row r="217">
@@ -7955,13 +7955,13 @@
         </is>
       </c>
       <c r="G217">
-        <v>1770962.2</v>
+        <v>5263828.5</v>
       </c>
       <c r="H217">
-        <v>18208.312</v>
+        <v>69812.08500000001</v>
       </c>
       <c r="I217">
-        <v>1.0139723</v>
+        <v>1.1757576</v>
       </c>
     </row>
     <row r="218">
@@ -7990,13 +7990,13 @@
         </is>
       </c>
       <c r="G218">
-        <v>82138778</v>
+        <v>74938182</v>
       </c>
       <c r="H218">
-        <v>879301.39</v>
+        <v>835949.9300000001</v>
       </c>
       <c r="I218">
-        <v>0.68618032</v>
+        <v>0.65568232</v>
       </c>
     </row>
     <row r="219">
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="G219">
-        <v>117485410</v>
+        <v>115460240</v>
       </c>
       <c r="H219">
-        <v>1191046</v>
+        <v>1300025.6</v>
       </c>
       <c r="I219">
-        <v>0.68090556</v>
+        <v>0.63209402</v>
       </c>
     </row>
     <row r="220">
@@ -8060,13 +8060,13 @@
         </is>
       </c>
       <c r="G220">
-        <v>13270577</v>
+        <v>21058183</v>
       </c>
       <c r="H220">
-        <v>125695.38</v>
+        <v>236918.19</v>
       </c>
       <c r="I220">
-        <v>0.65727144</v>
+        <v>0.65823095</v>
       </c>
     </row>
     <row r="221">
@@ -8095,13 +8095,13 @@
         </is>
       </c>
       <c r="G221">
-        <v>716370.87</v>
+        <v>2154530.1</v>
       </c>
       <c r="H221">
-        <v>7133.8911</v>
+        <v>26981.4</v>
       </c>
       <c r="I221">
-        <v>0.7046966</v>
+        <v>0.86056767</v>
       </c>
     </row>
     <row r="222">
@@ -8130,13 +8130,13 @@
         </is>
       </c>
       <c r="G222">
-        <v>22652776</v>
+        <v>20449438</v>
       </c>
       <c r="H222">
-        <v>237939.6</v>
+        <v>227376.05</v>
       </c>
       <c r="I222">
-        <v>0.37582411</v>
+        <v>0.35295584</v>
       </c>
     </row>
     <row r="223">
@@ -8165,13 +8165,13 @@
         </is>
       </c>
       <c r="G223">
-        <v>41087696</v>
+        <v>40092907</v>
       </c>
       <c r="H223">
-        <v>410986.81</v>
+        <v>444587.07</v>
       </c>
       <c r="I223">
-        <v>0.37646596</v>
+        <v>0.34343059</v>
       </c>
     </row>
     <row r="224">
@@ -8200,13 +8200,13 @@
         </is>
       </c>
       <c r="G224">
-        <v>4700174.7</v>
+        <v>7425029.7</v>
       </c>
       <c r="H224">
-        <v>44135.005</v>
+        <v>81588.337</v>
       </c>
       <c r="I224">
-        <v>0.36645984</v>
+        <v>0.36534832</v>
       </c>
     </row>
     <row r="225">
@@ -8235,13 +8235,13 @@
         </is>
       </c>
       <c r="G225">
-        <v>250997.81</v>
+        <v>724260.33</v>
       </c>
       <c r="H225">
-        <v>2482.8277</v>
+        <v>8870.608099999999</v>
       </c>
       <c r="I225">
-        <v>0.39230141</v>
+        <v>0.47368391</v>
       </c>
     </row>
     <row r="226">
@@ -8305,13 +8305,13 @@
         </is>
       </c>
       <c r="G227">
-        <v>78390582</v>
+        <v>77442236</v>
       </c>
       <c r="H227">
-        <v>829682.87</v>
+        <v>921377.24</v>
       </c>
       <c r="I227">
-        <v>0.35051856</v>
+        <v>0.30391467</v>
       </c>
     </row>
     <row r="228">
@@ -8340,13 +8340,13 @@
         </is>
       </c>
       <c r="G228">
-        <v>25036190</v>
+        <v>24096017</v>
       </c>
       <c r="H228">
-        <v>252904.64</v>
+        <v>272786.36</v>
       </c>
       <c r="I228">
-        <v>0.34758241</v>
+        <v>0.30999857</v>
       </c>
     </row>
     <row r="229">
@@ -8375,13 +8375,13 @@
         </is>
       </c>
       <c r="G229">
-        <v>3036251.6</v>
+        <v>4924770.2</v>
       </c>
       <c r="H229">
-        <v>28996.282</v>
+        <v>55700.291</v>
       </c>
       <c r="I229">
-        <v>0.34099492</v>
+        <v>0.3410525</v>
       </c>
     </row>
     <row r="230">
@@ -8445,13 +8445,13 @@
         </is>
       </c>
       <c r="G231">
-        <v>170830560</v>
+        <v>167742510</v>
       </c>
       <c r="H231">
-        <v>1824931.3</v>
+        <v>2058919.7</v>
       </c>
       <c r="I231">
-        <v>1.2931091</v>
+        <v>1.0801521</v>
       </c>
     </row>
     <row r="232">
@@ -8480,13 +8480,13 @@
         </is>
       </c>
       <c r="G232">
-        <v>54818684</v>
+        <v>53607448</v>
       </c>
       <c r="H232">
-        <v>560622.05</v>
+        <v>623505.61</v>
       </c>
       <c r="I232">
-        <v>1.2869528</v>
+        <v>1.1407172</v>
       </c>
     </row>
     <row r="233">
@@ -8515,13 +8515,13 @@
         </is>
       </c>
       <c r="G233">
-        <v>6684069.9</v>
+        <v>10983351</v>
       </c>
       <c r="H233">
-        <v>64905.625</v>
+        <v>127730.42</v>
       </c>
       <c r="I233">
-        <v>1.2650475</v>
+        <v>1.2848309</v>
       </c>
     </row>
     <row r="234">
@@ -8550,13 +8550,13 @@
         </is>
       </c>
       <c r="G234">
-        <v>24571038</v>
+        <v>21102882</v>
       </c>
       <c r="H234">
-        <v>263034.69</v>
+        <v>235406.73</v>
       </c>
       <c r="I234">
-        <v>0.68205074</v>
+        <v>0.617964</v>
       </c>
     </row>
     <row r="235">
@@ -8585,13 +8585,13 @@
         </is>
       </c>
       <c r="G235">
-        <v>48966459</v>
+        <v>50048931</v>
       </c>
       <c r="H235">
-        <v>486879.45</v>
+        <v>568329.22</v>
       </c>
       <c r="I235">
-        <v>0.65669632</v>
+        <v>0.54795682</v>
       </c>
     </row>
     <row r="236">
@@ -8620,13 +8620,13 @@
         </is>
       </c>
       <c r="G236">
-        <v>15958811</v>
+        <v>16867542</v>
       </c>
       <c r="H236">
-        <v>153191.99</v>
+        <v>181680.32</v>
       </c>
       <c r="I236">
-        <v>0.6638274199999999</v>
+        <v>0.62058465</v>
       </c>
     </row>
     <row r="237">
@@ -8655,13 +8655,13 @@
         </is>
       </c>
       <c r="G237">
-        <v>1979877.6</v>
+        <v>3456830.9</v>
       </c>
       <c r="H237">
-        <v>18248.723</v>
+        <v>37465.284</v>
       </c>
       <c r="I237">
-        <v>0.66186421</v>
+        <v>0.72130479</v>
       </c>
     </row>
     <row r="238">
@@ -8690,13 +8690,13 @@
         </is>
       </c>
       <c r="G238">
-        <v>35213495</v>
+        <v>31681587</v>
       </c>
       <c r="H238">
-        <v>330577.19</v>
+        <v>287305.99</v>
       </c>
       <c r="I238">
-        <v>0.29527129</v>
+        <v>0.27364382</v>
       </c>
     </row>
     <row r="239">
@@ -8725,13 +8725,13 @@
         </is>
       </c>
       <c r="G239">
-        <v>13164825</v>
+        <v>15250372</v>
       </c>
       <c r="H239">
-        <v>128947.17</v>
+        <v>169791.04</v>
       </c>
       <c r="I239">
-        <v>0.27478699</v>
+        <v>0.25566382</v>
       </c>
     </row>
     <row r="240">
@@ -8760,13 +8760,13 @@
         </is>
       </c>
       <c r="G240">
-        <v>4313057.1</v>
+        <v>5234634.8</v>
       </c>
       <c r="H240">
-        <v>41078.328</v>
+        <v>55995.784</v>
       </c>
       <c r="I240">
-        <v>0.27964931</v>
+        <v>0.29926163</v>
       </c>
     </row>
     <row r="241">
@@ -8795,13 +8795,13 @@
         </is>
       </c>
       <c r="G241">
-        <v>538423.6800000001</v>
+        <v>1063207.4</v>
       </c>
       <c r="H241">
-        <v>4958.9913</v>
+        <v>11545.572</v>
       </c>
       <c r="I241">
-        <v>0.2805213</v>
+        <v>0.35147188</v>
       </c>
     </row>
     <row r="242">
@@ -8865,13 +8865,13 @@
         </is>
       </c>
       <c r="G243">
-        <v>130764740</v>
+        <v>128038080</v>
       </c>
       <c r="H243">
-        <v>1345459.3</v>
+        <v>1447018</v>
       </c>
       <c r="I243">
-        <v>0.67380816</v>
+        <v>0.5751106</v>
       </c>
     </row>
     <row r="244">
@@ -8900,13 +8900,13 @@
         </is>
       </c>
       <c r="G244">
-        <v>19803967</v>
+        <v>21114951</v>
       </c>
       <c r="H244">
-        <v>197035.38</v>
+        <v>240162.81</v>
       </c>
       <c r="I244">
-        <v>0.64093099</v>
+        <v>0.54089152</v>
       </c>
     </row>
     <row r="245">
@@ -8935,13 +8935,13 @@
         </is>
       </c>
       <c r="G245">
-        <v>7310925.5</v>
+        <v>8726591.6</v>
       </c>
       <c r="H245">
-        <v>70825.185</v>
+        <v>96939.56600000001</v>
       </c>
       <c r="I245">
-        <v>0.65518653</v>
+        <v>0.6640485</v>
       </c>
     </row>
     <row r="246">
@@ -9005,13 +9005,13 @@
         </is>
       </c>
       <c r="G247">
-        <v>138307710</v>
+        <v>135048340</v>
       </c>
       <c r="H247">
-        <v>1414131.2</v>
+        <v>1537292.6</v>
       </c>
       <c r="I247">
-        <v>1.2510573</v>
+        <v>1.0233192</v>
       </c>
     </row>
     <row r="248">
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="G248">
-        <v>21119709</v>
+        <v>22833809</v>
       </c>
       <c r="H248">
-        <v>207681.48</v>
+        <v>256387.42</v>
       </c>
       <c r="I248">
-        <v>1.1855586</v>
+        <v>0.97700743</v>
       </c>
     </row>
     <row r="249">
@@ -9075,13 +9075,13 @@
         </is>
       </c>
       <c r="G249">
-        <v>7819930.1</v>
+        <v>9365203.5</v>
       </c>
       <c r="H249">
-        <v>75500.82399999999</v>
+        <v>104771.5</v>
       </c>
       <c r="I249">
-        <v>1.2232324</v>
+        <v>1.2491507</v>
       </c>
     </row>
     <row r="250">
@@ -9110,13 +9110,13 @@
         </is>
       </c>
       <c r="G250">
-        <v>20574720</v>
+        <v>20168476</v>
       </c>
       <c r="H250">
-        <v>220253.82</v>
+        <v>224983.26</v>
       </c>
       <c r="I250">
-        <v>1.6357612</v>
+        <v>1.3519329</v>
       </c>
     </row>
     <row r="251">
@@ -9145,13 +9145,13 @@
         </is>
       </c>
       <c r="G251">
-        <v>89878932</v>
+        <v>87762718</v>
       </c>
       <c r="H251">
-        <v>872143.98</v>
+        <v>937640.22</v>
       </c>
       <c r="I251">
-        <v>1.6034766</v>
+        <v>1.2164</v>
       </c>
     </row>
     <row r="252">
@@ -9180,13 +9180,13 @@
         </is>
       </c>
       <c r="G252">
-        <v>13956955</v>
+        <v>15491696</v>
       </c>
       <c r="H252">
-        <v>129111.68</v>
+        <v>159790.01</v>
       </c>
       <c r="I252">
-        <v>1.5165248</v>
+        <v>1.2032834</v>
       </c>
     </row>
     <row r="253">
@@ -9215,13 +9215,13 @@
         </is>
       </c>
       <c r="G253">
-        <v>5182741.8</v>
+        <v>6170458.6</v>
       </c>
       <c r="H253">
-        <v>47812.364</v>
+        <v>65540.317</v>
       </c>
       <c r="I253">
-        <v>1.5907698</v>
+        <v>1.6273877</v>
       </c>
     </row>
     <row r="254">
@@ -9250,13 +9250,13 @@
         </is>
       </c>
       <c r="G254">
-        <v>65901879</v>
+        <v>68409125</v>
       </c>
       <c r="H254">
-        <v>606821.29</v>
+        <v>596465.34</v>
       </c>
       <c r="I254">
-        <v>0.71437048</v>
+        <v>0.48311776</v>
       </c>
     </row>
     <row r="255">
@@ -9285,13 +9285,13 @@
         </is>
       </c>
       <c r="G255">
-        <v>19307760</v>
+        <v>16728672</v>
       </c>
       <c r="H255">
-        <v>171023.94</v>
+        <v>155371.17</v>
       </c>
       <c r="I255">
-        <v>0.63417092</v>
+        <v>0.39380687</v>
       </c>
     </row>
     <row r="256">
@@ -9320,13 +9320,13 @@
         </is>
       </c>
       <c r="G256">
-        <v>3076324.3</v>
+        <v>3126429.1</v>
       </c>
       <c r="H256">
-        <v>25793.614</v>
+        <v>27850.134</v>
       </c>
       <c r="I256">
-        <v>0.60625893</v>
+        <v>0.41269906</v>
       </c>
     </row>
     <row r="257">
@@ -9355,13 +9355,13 @@
         </is>
       </c>
       <c r="G257">
-        <v>1138221.8</v>
+        <v>1159958.7</v>
       </c>
       <c r="H257">
-        <v>9731.4151</v>
+        <v>11075.507</v>
       </c>
       <c r="I257">
-        <v>0.6427821500000001</v>
+        <v>0.55993996</v>
       </c>
     </row>
     <row r="258">
@@ -9425,13 +9425,13 @@
         </is>
       </c>
       <c r="G259">
-        <v>190970770</v>
+        <v>185534830</v>
       </c>
       <c r="H259">
-        <v>1987107.7</v>
+        <v>2088101.5</v>
       </c>
       <c r="I259">
-        <v>0.60222638</v>
+        <v>0.64603126</v>
       </c>
     </row>
     <row r="260">
@@ -9460,13 +9460,13 @@
         </is>
       </c>
       <c r="G260">
-        <v>10348081</v>
+        <v>14361000</v>
       </c>
       <c r="H260">
-        <v>91547.637</v>
+        <v>135661.87</v>
       </c>
       <c r="I260">
-        <v>0.54529018</v>
+        <v>0.52465871</v>
       </c>
     </row>
     <row r="261">
@@ -9495,13 +9495,13 @@
         </is>
       </c>
       <c r="G261">
-        <v>2278929.5</v>
+        <v>3701940.5</v>
       </c>
       <c r="H261">
-        <v>19230.614</v>
+        <v>34483.358</v>
       </c>
       <c r="I261">
-        <v>0.5320023699999999</v>
+        <v>0.6052794</v>
       </c>
     </row>
     <row r="262">
@@ -9565,13 +9565,13 @@
         </is>
       </c>
       <c r="G263">
-        <v>235103880</v>
+        <v>226845000</v>
       </c>
       <c r="H263">
-        <v>2434008.9</v>
+        <v>2546143.6</v>
       </c>
       <c r="I263">
-        <v>1.2965435</v>
+        <v>1.4073755</v>
       </c>
     </row>
     <row r="264">
@@ -9600,13 +9600,13 @@
         </is>
       </c>
       <c r="G264">
-        <v>13074235</v>
+        <v>19265909</v>
       </c>
       <c r="H264">
-        <v>116391.1</v>
+        <v>182857.15</v>
       </c>
       <c r="I264">
-        <v>1.1795922</v>
+        <v>1.2056747</v>
       </c>
     </row>
     <row r="265">
@@ -9635,13 +9635,13 @@
         </is>
       </c>
       <c r="G265">
-        <v>2900058</v>
+        <v>4967261.7</v>
       </c>
       <c r="H265">
-        <v>24693.375</v>
+        <v>47004.542</v>
       </c>
       <c r="I265">
-        <v>1.1536055</v>
+        <v>1.4461219</v>
       </c>
     </row>
     <row r="266">
@@ -9670,13 +9670,13 @@
         </is>
       </c>
       <c r="G266">
-        <v>21178559</v>
+        <v>21012426</v>
       </c>
       <c r="H266">
-        <v>226717.96</v>
+        <v>234397.68</v>
       </c>
       <c r="I266">
-        <v>0.36744098</v>
+        <v>0.50317831</v>
       </c>
     </row>
     <row r="267">
@@ -9705,13 +9705,13 @@
         </is>
       </c>
       <c r="G267">
-        <v>37618515</v>
+        <v>35953223</v>
       </c>
       <c r="H267">
-        <v>364983.22</v>
+        <v>343217.95</v>
       </c>
       <c r="I267">
-        <v>0.35436834</v>
+        <v>0.38824905</v>
       </c>
     </row>
     <row r="268">
@@ -9740,13 +9740,13 @@
         </is>
       </c>
       <c r="G268">
-        <v>2204135.8</v>
+        <v>3612720.7</v>
       </c>
       <c r="H268">
-        <v>18806.054</v>
+        <v>30565.749</v>
       </c>
       <c r="I268">
-        <v>0.33365343</v>
+        <v>0.38294724</v>
       </c>
     </row>
     <row r="269">
@@ -9775,13 +9775,13 @@
         </is>
       </c>
       <c r="G269">
-        <v>495975.14</v>
+        <v>918815.39</v>
       </c>
       <c r="H269">
-        <v>4068.7382</v>
+        <v>7944.0815</v>
       </c>
       <c r="I269">
-        <v>0.32973353</v>
+        <v>0.47287666</v>
       </c>
     </row>
     <row r="270">
@@ -9810,13 +9810,13 @@
         </is>
       </c>
       <c r="G270">
-        <v>13718563</v>
+        <v>13893270</v>
       </c>
       <c r="H270">
-        <v>127311.82</v>
+        <v>122128.59</v>
       </c>
       <c r="I270">
-        <v>0.024267523</v>
+        <v>0.025676269</v>
       </c>
     </row>
     <row r="271">
@@ -9845,13 +9845,13 @@
         </is>
       </c>
       <c r="G271">
-        <v>1683403.7</v>
+        <v>1442716.1</v>
       </c>
       <c r="H271">
-        <v>16540.636</v>
+        <v>13999.736</v>
       </c>
       <c r="I271">
-        <v>0.023015246</v>
+        <v>0.022707985</v>
       </c>
     </row>
     <row r="272">
@@ -9880,13 +9880,13 @@
         </is>
       </c>
       <c r="G272">
-        <v>99877.01300000001</v>
+        <v>150763.97</v>
       </c>
       <c r="H272">
-        <v>871.98819</v>
+        <v>1326.152</v>
       </c>
       <c r="I272">
-        <v>0.02188239</v>
+        <v>0.023279079</v>
       </c>
     </row>
     <row r="273">
@@ -9915,13 +9915,13 @@
         </is>
       </c>
       <c r="G273">
-        <v>22557.047</v>
+        <v>37650.498</v>
       </c>
       <c r="H273">
-        <v>189.93957</v>
+        <v>341.97364</v>
       </c>
       <c r="I273">
-        <v>0.02169359</v>
+        <v>0.028569979</v>
       </c>
     </row>
     <row r="274">
@@ -9985,13 +9985,13 @@
         </is>
       </c>
       <c r="G275">
-        <v>138391530</v>
+        <v>139472650</v>
       </c>
       <c r="H275">
-        <v>1362555.4</v>
+        <v>1380557.9</v>
       </c>
       <c r="I275">
-        <v>0.35679407</v>
+        <v>0.39711449</v>
       </c>
     </row>
     <row r="276">
@@ -10020,13 +10020,13 @@
         </is>
       </c>
       <c r="G276">
-        <v>17249151</v>
+        <v>15393328</v>
       </c>
       <c r="H276">
-        <v>175338.33</v>
+        <v>159209.26</v>
       </c>
       <c r="I276">
-        <v>0.34150587</v>
+        <v>0.35126829</v>
       </c>
     </row>
     <row r="277">
@@ -10055,13 +10055,13 @@
         </is>
       </c>
       <c r="G277">
-        <v>1258968.9</v>
+        <v>2033678.1</v>
       </c>
       <c r="H277">
-        <v>11375.427</v>
+        <v>19467.89</v>
       </c>
       <c r="I277">
-        <v>0.32459828</v>
+        <v>0.37967988</v>
       </c>
     </row>
     <row r="278">
@@ -10125,13 +10125,13 @@
         </is>
       </c>
       <c r="G279">
-        <v>263852990</v>
+        <v>265872910</v>
       </c>
       <c r="H279">
-        <v>2660555.2</v>
+        <v>2762285.2</v>
       </c>
       <c r="I279">
-        <v>1.1304556</v>
+        <v>1.2883984</v>
       </c>
     </row>
     <row r="280">
@@ -10160,13 +10160,13 @@
         </is>
       </c>
       <c r="G280">
-        <v>32858766</v>
+        <v>29333925</v>
       </c>
       <c r="H280">
-        <v>338792.59</v>
+        <v>313278.83</v>
       </c>
       <c r="I280">
-        <v>1.0714349</v>
+        <v>1.1087456</v>
       </c>
     </row>
     <row r="281">
@@ -10195,13 +10195,13 @@
         </is>
       </c>
       <c r="G281">
-        <v>2424328.4</v>
+        <v>3929247.8</v>
       </c>
       <c r="H281">
-        <v>22434.246</v>
+        <v>39525.293</v>
       </c>
       <c r="I281">
-        <v>1.0210849</v>
+        <v>1.2383995</v>
       </c>
     </row>
     <row r="282">
@@ -10230,13 +10230,13 @@
         </is>
       </c>
       <c r="G282">
-        <v>0.00010560493</v>
+        <v>67608.954</v>
       </c>
       <c r="H282">
-        <v>1.1305082e-06</v>
+        <v>754.19097</v>
       </c>
       <c r="I282">
-        <v>0.29922184</v>
+        <v>0.32725503</v>
       </c>
     </row>
     <row r="283">
@@ -10265,13 +10265,13 @@
         </is>
       </c>
       <c r="G283">
-        <v>45182003</v>
+        <v>45413332</v>
       </c>
       <c r="H283">
-        <v>448830.32</v>
+        <v>458273.7</v>
       </c>
       <c r="I283">
-        <v>0.32224953</v>
+        <v>0.37653424</v>
       </c>
     </row>
     <row r="284">
@@ -10300,13 +10300,13 @@
         </is>
       </c>
       <c r="G284">
-        <v>5620455.6</v>
+        <v>5059158.8</v>
       </c>
       <c r="H284">
-        <v>55787.547</v>
+        <v>50881.36</v>
       </c>
       <c r="I284">
-        <v>0.30198457</v>
+        <v>0.31722909</v>
       </c>
     </row>
     <row r="285">
@@ -10335,13 +10335,13 @@
         </is>
       </c>
       <c r="G285">
-        <v>426582.28</v>
+        <v>688940.88</v>
       </c>
       <c r="H285">
-        <v>3874.7819</v>
+        <v>6746.2258</v>
       </c>
       <c r="I285">
-        <v>0.29382032</v>
+        <v>0.36872629</v>
       </c>
     </row>
     <row r="286">
@@ -10370,13 +10370,13 @@
         </is>
       </c>
       <c r="G286">
-        <v>2195109.2</v>
+        <v>2755289.9</v>
       </c>
       <c r="H286">
-        <v>20182.759</v>
+        <v>23896.745</v>
       </c>
       <c r="I286">
-        <v>0.016130406</v>
+        <v>0.010612101</v>
       </c>
     </row>
     <row r="287">
@@ -10405,13 +10405,13 @@
         </is>
       </c>
       <c r="G287">
-        <v>1660422</v>
+        <v>1172561.2</v>
       </c>
       <c r="H287">
-        <v>16928.172</v>
+        <v>12461.654</v>
       </c>
       <c r="I287">
-        <v>0.017105296</v>
+        <v>0.014134179</v>
       </c>
     </row>
     <row r="288">
@@ -10440,13 +10440,13 @@
         </is>
       </c>
       <c r="G288">
-        <v>207056.51</v>
+        <v>132592.19</v>
       </c>
       <c r="H288">
-        <v>2093.1455</v>
+        <v>1385.7899</v>
       </c>
       <c r="I288">
-        <v>0.016025605</v>
+        <v>0.011993459</v>
       </c>
     </row>
     <row r="289">
@@ -10475,13 +10475,13 @@
         </is>
       </c>
       <c r="G289">
-        <v>15825.254</v>
+        <v>17969.684</v>
       </c>
       <c r="H289">
-        <v>147.64468</v>
+        <v>185.6334</v>
       </c>
       <c r="I289">
-        <v>0.015684648</v>
+        <v>0.013968092</v>
       </c>
     </row>
     <row r="290">
@@ -10545,13 +10545,13 @@
         </is>
       </c>
       <c r="G291">
-        <v>195498210</v>
+        <v>188482640</v>
       </c>
       <c r="H291">
-        <v>2042393.5</v>
+        <v>2095356.6</v>
       </c>
       <c r="I291">
-        <v>0.35238409</v>
+        <v>0.41940028</v>
       </c>
     </row>
     <row r="292">
@@ -10580,13 +10580,13 @@
         </is>
       </c>
       <c r="G292">
-        <v>26273273</v>
+        <v>32587742</v>
       </c>
       <c r="H292">
-        <v>278054.85</v>
+        <v>372607.79</v>
       </c>
       <c r="I292">
-        <v>0.39420804</v>
+        <v>0.58546072</v>
       </c>
     </row>
     <row r="293">
@@ -10615,13 +10615,13 @@
         </is>
       </c>
       <c r="G293">
-        <v>3532822.1</v>
+        <v>4233911.8</v>
       </c>
       <c r="H293">
-        <v>36774.773</v>
+        <v>47230.821</v>
       </c>
       <c r="I293">
-        <v>0.36816251</v>
+        <v>0.50624663</v>
       </c>
     </row>
     <row r="294">
@@ -10685,13 +10685,13 @@
         </is>
       </c>
       <c r="G295">
-        <v>205864720</v>
+        <v>199059630</v>
       </c>
       <c r="H295">
-        <v>2176964.4</v>
+        <v>2275019.3</v>
       </c>
       <c r="I295">
-        <v>0.57648943</v>
+        <v>0.7049541499999999</v>
       </c>
     </row>
     <row r="296">
@@ -10720,13 +10720,13 @@
         </is>
       </c>
       <c r="G296">
-        <v>27534377</v>
+        <v>33594865</v>
       </c>
       <c r="H296">
-        <v>297948.51</v>
+        <v>401190.9</v>
       </c>
       <c r="I296">
-        <v>0.65114461</v>
+        <v>1.0190076</v>
       </c>
     </row>
     <row r="297">
@@ -10755,13 +10755,13 @@
         </is>
       </c>
       <c r="G297">
-        <v>3717951.9</v>
+        <v>4462550.5</v>
       </c>
       <c r="H297">
-        <v>39300.723</v>
+        <v>51426.464</v>
       </c>
       <c r="I297">
-        <v>0.60527256</v>
+        <v>0.87668834</v>
       </c>
     </row>
     <row r="298">
@@ -10790,13 +10790,13 @@
         </is>
       </c>
       <c r="G298">
-        <v>0.00011946233</v>
+        <v>5216848.2</v>
       </c>
       <c r="H298">
-        <v>1.2788527e-06</v>
+        <v>58194.952</v>
       </c>
       <c r="I298">
-        <v>0.4873992</v>
+        <v>0.57887448</v>
       </c>
     </row>
     <row r="299">
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="G299">
-        <v>114016900</v>
+        <v>106437370</v>
       </c>
       <c r="H299">
-        <v>1202502</v>
+        <v>1212270.7</v>
       </c>
       <c r="I299">
-        <v>0.50603109</v>
+        <v>0.61550957</v>
       </c>
     </row>
     <row r="300">
@@ -10860,13 +10860,13 @@
         </is>
       </c>
       <c r="G300">
-        <v>15121484</v>
+        <v>17178205</v>
       </c>
       <c r="H300">
-        <v>165570.48</v>
+        <v>209399.57</v>
       </c>
       <c r="I300">
-        <v>0.57720225</v>
+        <v>0.91933245</v>
       </c>
     </row>
     <row r="301">
@@ -10895,13 +10895,13 @@
         </is>
       </c>
       <c r="G301">
-        <v>2056289.1</v>
+        <v>2362251.8</v>
       </c>
       <c r="H301">
-        <v>21785.761</v>
+        <v>27400.487</v>
       </c>
       <c r="I301">
-        <v>0.53436203</v>
+        <v>0.79150865</v>
       </c>
     </row>
     <row r="302">
@@ -10930,13 +10930,13 @@
         </is>
       </c>
       <c r="G302">
-        <v>14234370</v>
+        <v>7116405.7</v>
       </c>
       <c r="H302">
-        <v>130876.79</v>
+        <v>64436.123</v>
       </c>
       <c r="I302">
-        <v>0.14416904</v>
+        <v>0.21564486</v>
       </c>
     </row>
     <row r="303">
@@ -10965,13 +10965,13 @@
         </is>
       </c>
       <c r="G303">
-        <v>21738358</v>
+        <v>27333730</v>
       </c>
       <c r="H303">
-        <v>229772.84</v>
+        <v>312089.53</v>
       </c>
       <c r="I303">
-        <v>0.14493901</v>
+        <v>0.24377796</v>
       </c>
     </row>
     <row r="304">
@@ -11000,13 +11000,13 @@
         </is>
       </c>
       <c r="G304">
-        <v>2854366</v>
+        <v>4172660.1</v>
       </c>
       <c r="H304">
-        <v>31727.914</v>
+        <v>52231.976</v>
       </c>
       <c r="I304">
-        <v>0.1655995</v>
+        <v>0.36349651</v>
       </c>
     </row>
     <row r="305">
@@ -11035,13 +11035,13 @@
         </is>
       </c>
       <c r="G305">
-        <v>391155.52</v>
+        <v>595453.23</v>
       </c>
       <c r="H305">
-        <v>4174.5742</v>
+        <v>7010.6124</v>
       </c>
       <c r="I305">
-        <v>0.15341942</v>
+        <v>0.31763543</v>
       </c>
     </row>
     <row r="306">
@@ -11105,13 +11105,13 @@
         </is>
       </c>
       <c r="G307">
-        <v>30639759</v>
+        <v>31258161</v>
       </c>
       <c r="H307">
-        <v>314695.39</v>
+        <v>365466.38</v>
       </c>
       <c r="I307">
-        <v>0.16464036</v>
+        <v>0.19242523</v>
       </c>
     </row>
     <row r="308">
@@ -11140,13 +11140,13 @@
         </is>
       </c>
       <c r="G308">
-        <v>17844842</v>
+        <v>17023452</v>
       </c>
       <c r="H308">
-        <v>193363.17</v>
+        <v>202095.8</v>
       </c>
       <c r="I308">
-        <v>0.17130717</v>
+        <v>0.22275452</v>
       </c>
     </row>
     <row r="309">
@@ -11175,13 +11175,13 @@
         </is>
       </c>
       <c r="G309">
-        <v>2650423.2</v>
+        <v>2853399.8</v>
       </c>
       <c r="H309">
-        <v>30201.524</v>
+        <v>37379.401</v>
       </c>
       <c r="I309">
-        <v>0.19387288</v>
+        <v>0.32195015</v>
       </c>
     </row>
     <row r="310">
@@ -11245,13 +11245,13 @@
         </is>
       </c>
       <c r="G311">
-        <v>39172463</v>
+        <v>39964180</v>
       </c>
       <c r="H311">
-        <v>412878.66</v>
+        <v>487907.41</v>
       </c>
       <c r="I311">
-        <v>0.30904006</v>
+        <v>0.36497745</v>
       </c>
     </row>
     <row r="312">
@@ -11280,13 +11280,13 @@
         </is>
       </c>
       <c r="G312">
-        <v>22739551</v>
+        <v>21797680</v>
       </c>
       <c r="H312">
-        <v>252161.8</v>
+        <v>269862.89</v>
       </c>
       <c r="I312">
-        <v>0.32125241</v>
+        <v>0.42807018</v>
       </c>
     </row>
     <row r="313">
@@ -11315,13 +11315,13 @@
         </is>
       </c>
       <c r="G313">
-        <v>3357753</v>
+        <v>3507906.9</v>
       </c>
       <c r="H313">
-        <v>39345.974</v>
+        <v>48536.113</v>
       </c>
       <c r="I313">
-        <v>0.36441503</v>
+        <v>0.61545671</v>
       </c>
     </row>
     <row r="314">
@@ -11350,13 +11350,13 @@
         </is>
       </c>
       <c r="G314">
-        <v>48269198</v>
+        <v>30124491</v>
       </c>
       <c r="H314">
-        <v>516725.16</v>
+        <v>336044.53</v>
       </c>
       <c r="I314">
-        <v>0.16715785</v>
+        <v>0.33373218</v>
       </c>
     </row>
     <row r="315">
@@ -11385,13 +11385,13 @@
         </is>
       </c>
       <c r="G315">
-        <v>15512132</v>
+        <v>26991250</v>
       </c>
       <c r="H315">
-        <v>166410.85</v>
+        <v>338359.22</v>
       </c>
       <c r="I315">
-        <v>0.18008413</v>
+        <v>0.37418187</v>
       </c>
     </row>
     <row r="316">
@@ -11420,13 +11420,13 @@
         </is>
       </c>
       <c r="G316">
-        <v>8962606.699999999</v>
+        <v>14697029</v>
       </c>
       <c r="H316">
-        <v>100857.66</v>
+        <v>187120.59</v>
       </c>
       <c r="I316">
-        <v>0.18676719</v>
+        <v>0.44554161</v>
       </c>
     </row>
     <row r="317">
@@ -11455,13 +11455,13 @@
         </is>
       </c>
       <c r="G317">
-        <v>1311981.8</v>
+        <v>2243149.3</v>
       </c>
       <c r="H317">
-        <v>15710.266</v>
+        <v>32442.756</v>
       </c>
       <c r="I317">
-        <v>0.21183777</v>
+        <v>0.63696072</v>
       </c>
     </row>
     <row r="318">
@@ -11490,13 +11490,13 @@
         </is>
       </c>
       <c r="G318">
-        <v>24342250</v>
+        <v>14644979</v>
       </c>
       <c r="H318">
-        <v>265866.98</v>
+        <v>168777.23</v>
       </c>
       <c r="I318">
-        <v>0.15244767</v>
+        <v>0.30537276</v>
       </c>
     </row>
     <row r="319">
@@ -11525,13 +11525,13 @@
         </is>
       </c>
       <c r="G319">
-        <v>9804058.199999999</v>
+        <v>16038403</v>
       </c>
       <c r="H319">
-        <v>107778.29</v>
+        <v>205850.92</v>
       </c>
       <c r="I319">
-        <v>0.16446214</v>
+        <v>0.33633227</v>
       </c>
     </row>
     <row r="320">
@@ -11560,13 +11560,13 @@
         </is>
       </c>
       <c r="G320">
-        <v>5647210.4</v>
+        <v>8679029.199999999</v>
       </c>
       <c r="H320">
-        <v>64966.741</v>
+        <v>113636.18</v>
       </c>
       <c r="I320">
-        <v>0.17030879</v>
+        <v>0.40503214</v>
       </c>
     </row>
     <row r="321">
@@ -11595,13 +11595,13 @@
         </is>
       </c>
       <c r="G321">
-        <v>821068.5699999999</v>
+        <v>1252174.9</v>
       </c>
       <c r="H321">
-        <v>10094.16</v>
+        <v>18926.436</v>
       </c>
       <c r="I321">
-        <v>0.19301338</v>
+        <v>0.57255042</v>
       </c>
     </row>
     <row r="322">
@@ -11665,13 +11665,13 @@
         </is>
       </c>
       <c r="G323">
-        <v>23596086</v>
+        <v>22175201</v>
       </c>
       <c r="H323">
-        <v>259085.55</v>
+        <v>265051.66</v>
       </c>
       <c r="I323">
-        <v>0.18419386</v>
+        <v>0.24996008</v>
       </c>
     </row>
     <row r="324">
@@ -11700,13 +11700,13 @@
         </is>
       </c>
       <c r="G324">
-        <v>8278424.5</v>
+        <v>9411829.199999999</v>
       </c>
       <c r="H324">
-        <v>93300.845</v>
+        <v>123950.16</v>
       </c>
       <c r="I324">
-        <v>0.20118143</v>
+        <v>0.29564057</v>
       </c>
     </row>
     <row r="325">
@@ -11735,13 +11735,13 @@
         </is>
       </c>
       <c r="G325">
-        <v>5442059.6</v>
+        <v>5729528.3</v>
       </c>
       <c r="H325">
-        <v>64632.513</v>
+        <v>79050.16499999999</v>
       </c>
       <c r="I325">
-        <v>0.21121572</v>
+        <v>0.37074204</v>
       </c>
     </row>
     <row r="326">
@@ -11805,13 +11805,13 @@
         </is>
       </c>
       <c r="G327">
-        <v>63736101</v>
+        <v>60301114</v>
       </c>
       <c r="H327">
-        <v>713352.7</v>
+        <v>747903.98</v>
       </c>
       <c r="I327">
-        <v>0.77518815</v>
+        <v>1.1119377</v>
       </c>
     </row>
     <row r="328">
@@ -11840,13 +11840,13 @@
         </is>
       </c>
       <c r="G328">
-        <v>22282412</v>
+        <v>25240222</v>
       </c>
       <c r="H328">
-        <v>256920.54</v>
+        <v>342174.33</v>
       </c>
       <c r="I328">
-        <v>0.85354835</v>
+        <v>1.3403216</v>
       </c>
     </row>
     <row r="329">
@@ -11875,13 +11875,13 @@
         </is>
       </c>
       <c r="G329">
-        <v>14590894</v>
+        <v>15068065</v>
       </c>
       <c r="H329">
-        <v>176997.06</v>
+        <v>215719.69</v>
       </c>
       <c r="I329">
-        <v>0.89862341</v>
+        <v>1.7446708</v>
       </c>
     </row>
     <row r="330">
@@ -11910,13 +11910,13 @@
         </is>
       </c>
       <c r="G330">
-        <v>8.2130126e-05</v>
+        <v>1.1157338e-06</v>
       </c>
       <c r="H330">
-        <v>8.7920877e-07</v>
+        <v>1.2446227e-08</v>
       </c>
       <c r="I330">
-        <v>0.86811517</v>
+        <v>1.5792122</v>
       </c>
     </row>
     <row r="331">
@@ -11945,13 +11945,13 @@
         </is>
       </c>
       <c r="G331">
-        <v>43785247</v>
+        <v>42139254</v>
       </c>
       <c r="H331">
-        <v>479136.61</v>
+        <v>486797.27</v>
       </c>
       <c r="I331">
-        <v>0.90924861</v>
+        <v>1.4839525</v>
       </c>
     </row>
     <row r="332">
@@ -11980,13 +11980,13 @@
         </is>
       </c>
       <c r="G332">
-        <v>15151076</v>
+        <v>17019631</v>
       </c>
       <c r="H332">
-        <v>172658.81</v>
+        <v>212277.59</v>
       </c>
       <c r="I332">
-        <v>1.0136328</v>
+        <v>1.8575928</v>
       </c>
     </row>
     <row r="333">
@@ -12015,13 +12015,13 @@
         </is>
       </c>
       <c r="G333">
-        <v>9803430</v>
+        <v>9580867.699999999</v>
       </c>
       <c r="H333">
-        <v>117336.8</v>
+        <v>129215.88</v>
       </c>
       <c r="I333">
-        <v>1.0675313</v>
+        <v>2.6246969</v>
       </c>
     </row>
     <row r="334">
@@ -12050,13 +12050,13 @@
         </is>
       </c>
       <c r="G334">
-        <v>10606467</v>
+        <v>12315164</v>
       </c>
       <c r="H334">
-        <v>97520.32399999999</v>
+        <v>106792.56</v>
       </c>
       <c r="I334">
-        <v>0.06540886</v>
+        <v>0.06934325199999999</v>
       </c>
     </row>
     <row r="335">
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="G335">
-        <v>1971205.7</v>
+        <v>872004.29</v>
       </c>
       <c r="H335">
-        <v>20822.516</v>
+        <v>7862.8914</v>
       </c>
       <c r="I335">
-        <v>0.064121491</v>
+        <v>0.051790817</v>
       </c>
     </row>
     <row r="336">
@@ -12120,13 +12120,13 @@
         </is>
       </c>
       <c r="G336">
-        <v>671716.34</v>
+        <v>330112.94</v>
       </c>
       <c r="H336">
-        <v>7492.2433</v>
+        <v>3139.1448</v>
       </c>
       <c r="I336">
-        <v>0.071421438</v>
+        <v>0.06397575799999999</v>
       </c>
     </row>
     <row r="337">
@@ -12155,13 +12155,13 @@
         </is>
       </c>
       <c r="G337">
-        <v>428646.02</v>
+        <v>160754.06</v>
       </c>
       <c r="H337">
-        <v>5013.8061</v>
+        <v>1703.9734</v>
       </c>
       <c r="I337">
-        <v>0.074737579</v>
+        <v>0.087086539</v>
       </c>
     </row>
     <row r="338">
@@ -12225,13 +12225,13 @@
         </is>
       </c>
       <c r="G339">
-        <v>5004008.3</v>
+        <v>5654070.2</v>
       </c>
       <c r="H339">
-        <v>49347.253</v>
+        <v>55726.203</v>
       </c>
       <c r="I339">
-        <v>0.038321602</v>
+        <v>0.045520808</v>
       </c>
     </row>
     <row r="340">
@@ -12260,13 +12260,13 @@
         </is>
       </c>
       <c r="G340">
-        <v>834941.53</v>
+        <v>418619.65</v>
       </c>
       <c r="H340">
-        <v>9067.556500000001</v>
+        <v>4007.1348</v>
       </c>
       <c r="I340">
-        <v>0.038073631</v>
+        <v>0.034785727</v>
       </c>
     </row>
     <row r="341">
@@ -12295,13 +12295,13 @@
         </is>
       </c>
       <c r="G341">
-        <v>463846.45</v>
+        <v>230109.69</v>
       </c>
       <c r="H341">
-        <v>5427.0229</v>
+        <v>2409.5347</v>
       </c>
       <c r="I341">
-        <v>0.043019933</v>
+        <v>0.046124143</v>
       </c>
     </row>
     <row r="342">
@@ -12365,13 +12365,13 @@
         </is>
       </c>
       <c r="G343">
-        <v>123117980</v>
+        <v>138842180</v>
       </c>
       <c r="H343">
-        <v>1259821.6</v>
+        <v>1472071.1</v>
       </c>
       <c r="I343">
-        <v>1.588824</v>
+        <v>1.9705149</v>
       </c>
     </row>
     <row r="344">
@@ -12400,13 +12400,13 @@
         </is>
       </c>
       <c r="G344">
-        <v>20504671</v>
+        <v>10488137</v>
       </c>
       <c r="H344">
-        <v>229198.9</v>
+        <v>106807.64</v>
       </c>
       <c r="I344">
-        <v>1.5725781</v>
+        <v>1.4431297</v>
       </c>
     </row>
     <row r="345">
@@ -12435,13 +12435,13 @@
         </is>
       </c>
       <c r="G345">
-        <v>11342622</v>
+        <v>5634962.4</v>
       </c>
       <c r="H345">
-        <v>136700.35</v>
+        <v>62795.632</v>
       </c>
       <c r="I345">
-        <v>1.8225653</v>
+        <v>1.9974066</v>
       </c>
     </row>
     <row r="346">
@@ -12470,13 +12470,13 @@
         </is>
       </c>
       <c r="G346">
-        <v>25361374</v>
+        <v>30724127</v>
       </c>
       <c r="H346">
-        <v>271495.29</v>
+        <v>342733.58</v>
       </c>
       <c r="I346">
-        <v>0.8235846999999999</v>
+        <v>0.9409600299999999</v>
       </c>
     </row>
     <row r="347">
@@ -12505,13 +12505,13 @@
         </is>
       </c>
       <c r="G347">
-        <v>35805280</v>
+        <v>34949066</v>
       </c>
       <c r="H347">
-        <v>349791.99</v>
+        <v>329818.78</v>
       </c>
       <c r="I347">
-        <v>0.87404987</v>
+        <v>1.0030178</v>
       </c>
     </row>
     <row r="348">
@@ -12540,13 +12540,13 @@
         </is>
       </c>
       <c r="G348">
-        <v>5784068.4</v>
+        <v>2932618.2</v>
       </c>
       <c r="H348">
-        <v>58815.168</v>
+        <v>25416.431</v>
       </c>
       <c r="I348">
-        <v>0.83319944</v>
+        <v>0.7363141600000001</v>
       </c>
     </row>
     <row r="349">
@@ -12575,13 +12575,13 @@
         </is>
       </c>
       <c r="G349">
-        <v>3056840.9</v>
+        <v>1401752.7</v>
       </c>
       <c r="H349">
-        <v>34319.402</v>
+        <v>13325.223</v>
       </c>
       <c r="I349">
-        <v>0.96975391</v>
+        <v>1.0091629</v>
       </c>
     </row>
     <row r="350">
@@ -12610,13 +12610,13 @@
         </is>
       </c>
       <c r="G350">
-        <v>24122015</v>
+        <v>24391282</v>
       </c>
       <c r="H350">
-        <v>223441.81</v>
+        <v>214746.5</v>
       </c>
       <c r="I350">
-        <v>0.09389718</v>
+        <v>0.10076746</v>
       </c>
     </row>
     <row r="351">
@@ -12645,13 +12645,13 @@
         </is>
       </c>
       <c r="G351">
-        <v>2514793.5</v>
+        <v>2527054.9</v>
       </c>
       <c r="H351">
-        <v>24546.643</v>
+        <v>23899.786</v>
       </c>
       <c r="I351">
-        <v>0.096107473</v>
+        <v>0.11574158</v>
       </c>
     </row>
     <row r="352">
@@ -12680,13 +12680,13 @@
         </is>
       </c>
       <c r="G352">
-        <v>404766.15</v>
+        <v>229033.65</v>
       </c>
       <c r="H352">
-        <v>4015.0301</v>
+        <v>1962.0935</v>
       </c>
       <c r="I352">
-        <v>0.09073998899999999</v>
+        <v>0.08835383300000001</v>
       </c>
     </row>
     <row r="353">
@@ -12715,13 +12715,13 @@
         </is>
       </c>
       <c r="G353">
-        <v>207814.74</v>
+        <v>102018.17</v>
       </c>
       <c r="H353">
-        <v>2302.2747</v>
+        <v>962.55466</v>
       </c>
       <c r="I353">
-        <v>0.10461294</v>
+        <v>0.11732818</v>
       </c>
     </row>
     <row r="354">
@@ -12785,13 +12785,13 @@
         </is>
       </c>
       <c r="G355">
-        <v>129837190</v>
+        <v>130592540</v>
       </c>
       <c r="H355">
-        <v>1323679.8</v>
+        <v>1428600.8</v>
       </c>
       <c r="I355">
-        <v>0.36925224</v>
+        <v>0.39563807</v>
       </c>
     </row>
     <row r="356">
@@ -12820,13 +12820,13 @@
         </is>
       </c>
       <c r="G356">
-        <v>6948890</v>
+        <v>6950910.1</v>
       </c>
       <c r="H356">
-        <v>70289.05</v>
+        <v>70853.41499999999</v>
       </c>
       <c r="I356">
-        <v>0.39045211</v>
+        <v>0.47406955</v>
       </c>
     </row>
     <row r="357">
@@ -12855,13 +12855,13 @@
         </is>
       </c>
       <c r="G357">
-        <v>1690550.3</v>
+        <v>933179.48</v>
       </c>
       <c r="H357">
-        <v>17954.707</v>
+        <v>8862.374900000001</v>
       </c>
       <c r="I357">
-        <v>0.38522382</v>
+        <v>0.3966164</v>
       </c>
     </row>
     <row r="358">
@@ -12925,13 +12925,13 @@
         </is>
       </c>
       <c r="G359">
-        <v>204127740</v>
+        <v>205137340</v>
       </c>
       <c r="H359">
-        <v>2114040.9</v>
+        <v>2315449.2</v>
       </c>
       <c r="I359">
-        <v>0.94507655</v>
+        <v>1.024886</v>
       </c>
     </row>
     <row r="360">
@@ -12960,13 +12960,13 @@
         </is>
       </c>
       <c r="G360">
-        <v>10911549</v>
+        <v>11016190</v>
       </c>
       <c r="H360">
-        <v>112930.62</v>
+        <v>118391.66</v>
       </c>
       <c r="I360">
-        <v>1.0084364</v>
+        <v>1.2918496</v>
       </c>
     </row>
     <row r="361">
@@ -12995,13 +12995,13 @@
         </is>
       </c>
       <c r="G361">
-        <v>2646181.1</v>
+        <v>1531940.7</v>
       </c>
       <c r="H361">
-        <v>28477.92</v>
+        <v>15270.012</v>
       </c>
       <c r="I361">
-        <v>0.98878919</v>
+        <v>1.0811132</v>
       </c>
     </row>
     <row r="362">
@@ -13030,13 +13030,13 @@
         </is>
       </c>
       <c r="G362">
-        <v>148709420</v>
+        <v>165014700</v>
       </c>
       <c r="H362">
-        <v>1591944.7</v>
+        <v>1840770.9</v>
       </c>
       <c r="I362">
-        <v>0.46047524</v>
+        <v>0.38612055</v>
       </c>
     </row>
     <row r="363">
@@ -13065,13 +13065,13 @@
         </is>
       </c>
       <c r="G363">
-        <v>62364246</v>
+        <v>47271649</v>
       </c>
       <c r="H363">
-        <v>632821.0600000001</v>
+        <v>512319.36</v>
       </c>
       <c r="I363">
-        <v>0.478262</v>
+        <v>0.39107462</v>
       </c>
     </row>
     <row r="364">
@@ -13100,13 +13100,13 @@
         </is>
       </c>
       <c r="G364">
-        <v>3320771.3</v>
+        <v>2532543.1</v>
       </c>
       <c r="H364">
-        <v>34185.275</v>
+        <v>27184.052</v>
       </c>
       <c r="I364">
-        <v>0.51486294</v>
+        <v>0.51721962</v>
       </c>
     </row>
     <row r="365">
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="G365">
-        <v>800565.41</v>
+        <v>376107.96</v>
       </c>
       <c r="H365">
-        <v>8410.7065</v>
+        <v>3715.7827</v>
       </c>
       <c r="I365">
-        <v>0.4996332</v>
+        <v>0.44572941</v>
       </c>
     </row>
     <row r="366">
@@ -13170,13 +13170,13 @@
         </is>
       </c>
       <c r="G366">
-        <v>44187273</v>
+        <v>41896885</v>
       </c>
       <c r="H366">
-        <v>443413.64</v>
+        <v>480325.57</v>
       </c>
       <c r="I366">
-        <v>0.14570749</v>
+        <v>0.18295909</v>
       </c>
     </row>
     <row r="367">
@@ -13205,13 +13205,13 @@
         </is>
       </c>
       <c r="G367">
-        <v>13083283</v>
+        <v>15306657</v>
       </c>
       <c r="H367">
-        <v>134081.85</v>
+        <v>170491.75</v>
       </c>
       <c r="I367">
-        <v>0.15029626</v>
+        <v>0.1884865</v>
       </c>
     </row>
     <row r="368">
@@ -13240,13 +13240,13 @@
         </is>
       </c>
       <c r="G368">
-        <v>693445.5</v>
+        <v>803746.29</v>
       </c>
       <c r="H368">
-        <v>7269.137</v>
+        <v>9071.0638</v>
       </c>
       <c r="I368">
-        <v>0.16204207</v>
+        <v>0.25019287</v>
       </c>
     </row>
     <row r="369">
@@ -13275,13 +13275,13 @@
         </is>
       </c>
       <c r="G369">
-        <v>167125.8</v>
+        <v>123837.51</v>
       </c>
       <c r="H369">
-        <v>1770.8715</v>
+        <v>1284.7046</v>
       </c>
       <c r="I369">
-        <v>0.15679549</v>
+        <v>0.22085798</v>
       </c>
     </row>
     <row r="370">
@@ -13345,13 +13345,13 @@
         </is>
       </c>
       <c r="G371">
-        <v>98024864</v>
+        <v>97036612</v>
       </c>
       <c r="H371">
-        <v>1020913.9</v>
+        <v>1162075.1</v>
       </c>
       <c r="I371">
-        <v>0.38085819</v>
+        <v>0.4058877</v>
       </c>
     </row>
     <row r="372">
@@ -13380,13 +13380,13 @@
         </is>
       </c>
       <c r="G372">
-        <v>23382700</v>
+        <v>24450087</v>
       </c>
       <c r="H372">
-        <v>246443.1</v>
+        <v>285481.35</v>
       </c>
       <c r="I372">
-        <v>0.39800038</v>
+        <v>0.45119276</v>
       </c>
     </row>
     <row r="373">
@@ -13415,13 +13415,13 @@
         </is>
       </c>
       <c r="G373">
-        <v>1533661.2</v>
+        <v>1454525.4</v>
       </c>
       <c r="H373">
-        <v>16613.349</v>
+        <v>17296.573</v>
       </c>
       <c r="I373">
-        <v>0.42722696</v>
+        <v>0.59198316</v>
       </c>
     </row>
     <row r="374">
@@ -13485,13 +13485,13 @@
         </is>
       </c>
       <c r="G375">
-        <v>141072860</v>
+        <v>139364120</v>
       </c>
       <c r="H375">
-        <v>1487045.5</v>
+        <v>1708255.9</v>
       </c>
       <c r="I375">
-        <v>0.88744637</v>
+        <v>0.95449636</v>
       </c>
     </row>
     <row r="376">
@@ -13520,13 +13520,13 @@
         </is>
       </c>
       <c r="G376">
-        <v>33568874</v>
+        <v>35421848</v>
       </c>
       <c r="H376">
-        <v>359133.49</v>
+        <v>425211.23</v>
       </c>
       <c r="I376">
-        <v>0.93213068</v>
+        <v>1.0947024</v>
       </c>
     </row>
     <row r="377">
@@ -13555,13 +13555,13 @@
         </is>
       </c>
       <c r="G377">
-        <v>2190485.3</v>
+        <v>2046246</v>
       </c>
       <c r="H377">
-        <v>24203.265</v>
+        <v>25512.924</v>
       </c>
       <c r="I377">
-        <v>1.008334</v>
+        <v>1.4875822</v>
       </c>
     </row>
     <row r="378">
@@ -13590,13 +13590,13 @@
         </is>
       </c>
       <c r="G378">
-        <v>44121663</v>
+        <v>11365890</v>
       </c>
       <c r="H378">
-        <v>472325.5</v>
+        <v>126788.71</v>
       </c>
       <c r="I378">
-        <v>0.22746044</v>
+        <v>0.55366971</v>
       </c>
     </row>
     <row r="379">
@@ -13625,13 +13625,13 @@
         </is>
       </c>
       <c r="G379">
-        <v>23424264</v>
+        <v>48904505</v>
       </c>
       <c r="H379">
-        <v>241565.1</v>
+        <v>573081.59</v>
       </c>
       <c r="I379">
-        <v>0.23511393</v>
+        <v>0.56113936</v>
       </c>
     </row>
     <row r="380">
@@ -13660,13 +13660,13 @@
         </is>
       </c>
       <c r="G380">
-        <v>5542475.8</v>
+        <v>12497683</v>
       </c>
       <c r="H380">
-        <v>58375.139</v>
+        <v>145288.31</v>
       </c>
       <c r="I380">
-        <v>0.24736228</v>
+        <v>0.66760677</v>
       </c>
     </row>
     <row r="381">
@@ -13695,13 +13695,13 @@
         </is>
       </c>
       <c r="G381">
-        <v>357461.45</v>
+        <v>677786.34</v>
       </c>
       <c r="H381">
-        <v>3928.7533</v>
+        <v>8461.8266</v>
       </c>
       <c r="I381">
-        <v>0.26778332</v>
+        <v>0.925297</v>
       </c>
     </row>
     <row r="382">
@@ -13730,13 +13730,13 @@
         </is>
       </c>
       <c r="G382">
-        <v>1970284.3</v>
+        <v>1499732.6</v>
       </c>
       <c r="H382">
-        <v>20128.564</v>
+        <v>13560.329</v>
       </c>
       <c r="I382">
-        <v>0.011112109</v>
+        <v>0.018418273</v>
       </c>
     </row>
     <row r="383">
@@ -13765,13 +13765,13 @@
         </is>
       </c>
       <c r="G383">
-        <v>798440.5600000001</v>
+        <v>1160539.1</v>
       </c>
       <c r="H383">
-        <v>8411.189200000001</v>
+        <v>13507.055</v>
       </c>
       <c r="I383">
-        <v>0.011440572</v>
+        <v>0.019834543</v>
       </c>
     </row>
     <row r="384">
@@ -13800,13 +13800,13 @@
         </is>
       </c>
       <c r="G384">
-        <v>188410.08</v>
+        <v>293911.58</v>
       </c>
       <c r="H384">
-        <v>2031.3671</v>
+        <v>3442.0403</v>
       </c>
       <c r="I384">
-        <v>0.012023468</v>
+        <v>0.023718477</v>
       </c>
     </row>
     <row r="385">
@@ -13835,13 +13835,13 @@
         </is>
       </c>
       <c r="G385">
-        <v>12090.008</v>
+        <v>15041.7</v>
       </c>
       <c r="H385">
-        <v>136.40345</v>
+        <v>193.49222</v>
       </c>
       <c r="I385">
-        <v>0.012985227</v>
+        <v>0.03210495</v>
       </c>
     </row>
     <row r="386">
@@ -13905,13 +13905,13 @@
         </is>
       </c>
       <c r="G387">
-        <v>39800560</v>
+        <v>41001933</v>
       </c>
       <c r="H387">
-        <v>421187.39</v>
+        <v>476751.05</v>
       </c>
       <c r="I387">
-        <v>0.13354988</v>
+        <v>0.12707878</v>
       </c>
     </row>
     <row r="388">
@@ -13940,13 +13940,13 @@
         </is>
       </c>
       <c r="G388">
-        <v>7018515.2</v>
+        <v>5997447.9</v>
       </c>
       <c r="H388">
-        <v>76428.47100000001</v>
+        <v>73462.731</v>
       </c>
       <c r="I388">
-        <v>0.14187188</v>
+        <v>0.14480688</v>
       </c>
     </row>
     <row r="389">
@@ -13975,13 +13975,13 @@
         </is>
       </c>
       <c r="G389">
-        <v>1759762.6</v>
+        <v>1579448.1</v>
       </c>
       <c r="H389">
-        <v>19680.443</v>
+        <v>19715.498</v>
       </c>
       <c r="I389">
-        <v>0.14969801</v>
+        <v>0.17423398</v>
       </c>
     </row>
     <row r="390">
@@ -14045,13 +14045,13 @@
         </is>
       </c>
       <c r="G391">
-        <v>127464680</v>
+        <v>131306650</v>
       </c>
       <c r="H391">
-        <v>1382918.1</v>
+        <v>1604344.9</v>
       </c>
       <c r="I391">
-        <v>0.65236992</v>
+        <v>0.6176108</v>
       </c>
     </row>
     <row r="392">
@@ -14080,13 +14080,13 @@
         </is>
       </c>
       <c r="G392">
-        <v>22422763</v>
+        <v>19203942</v>
       </c>
       <c r="H392">
-        <v>250565.95</v>
+        <v>245270.09</v>
       </c>
       <c r="I392">
-        <v>0.69571492</v>
+        <v>0.71351381</v>
       </c>
     </row>
     <row r="393">
@@ -14115,13 +14115,13 @@
         </is>
       </c>
       <c r="G393">
-        <v>5608203.2</v>
+        <v>4985052.4</v>
       </c>
       <c r="H393">
-        <v>64448.963</v>
+        <v>65454.887</v>
       </c>
       <c r="I393">
-        <v>0.73664813</v>
+        <v>0.86507106</v>
       </c>
     </row>
     <row r="394">
@@ -14150,13 +14150,13 @@
         </is>
       </c>
       <c r="G394">
-        <v>24276445</v>
+        <v>2796566.2</v>
       </c>
       <c r="H394">
-        <v>259881.05</v>
+        <v>31196.238</v>
       </c>
       <c r="I394">
-        <v>1.6341811</v>
+        <v>1.6357158</v>
       </c>
     </row>
     <row r="395">
@@ -14185,13 +14185,13 @@
         </is>
       </c>
       <c r="G395">
-        <v>183365560</v>
+        <v>206996000</v>
       </c>
       <c r="H395">
-        <v>1973322.6</v>
+        <v>2538332.3</v>
       </c>
       <c r="I395">
-        <v>1.7397736</v>
+        <v>1.811988</v>
       </c>
     </row>
     <row r="396">
@@ -14220,13 +14220,13 @@
         </is>
       </c>
       <c r="G396">
-        <v>32032633</v>
+        <v>30216567</v>
       </c>
       <c r="H396">
-        <v>356333.09</v>
+        <v>384299.31</v>
       </c>
       <c r="I396">
-        <v>1.8839139</v>
+        <v>2.2153385</v>
       </c>
     </row>
     <row r="397">
@@ -14255,13 +14255,13 @@
         </is>
       </c>
       <c r="G397">
-        <v>7954245.5</v>
+        <v>7619752.8</v>
       </c>
       <c r="H397">
-        <v>91435.92</v>
+        <v>101184.77</v>
       </c>
       <c r="I397">
-        <v>2.0229545</v>
+        <v>2.8596062</v>
       </c>
     </row>
     <row r="398">
@@ -14290,13 +14290,13 @@
         </is>
       </c>
       <c r="G398">
-        <v>27443388</v>
+        <v>31661405</v>
       </c>
       <c r="H398">
-        <v>252586.49</v>
+        <v>274578.82</v>
       </c>
       <c r="I398">
-        <v>0.16412249</v>
+        <v>0.11341267</v>
       </c>
     </row>
     <row r="399">
@@ -14325,13 +14325,13 @@
         </is>
       </c>
       <c r="G399">
-        <v>9179446.699999999</v>
+        <v>5876410.6</v>
       </c>
       <c r="H399">
-        <v>88548.192</v>
+        <v>55236.55</v>
       </c>
       <c r="I399">
-        <v>0.15393293</v>
+        <v>0.09108790999999999</v>
       </c>
     </row>
     <row r="400">
@@ -14360,13 +14360,13 @@
         </is>
       </c>
       <c r="G400">
-        <v>1567914.8</v>
+        <v>843957.49</v>
       </c>
       <c r="H400">
-        <v>15830.329</v>
+        <v>8141.7799</v>
       </c>
       <c r="I400">
-        <v>0.16642485</v>
+        <v>0.11607737</v>
       </c>
     </row>
     <row r="401">
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="G401">
-        <v>380114.86</v>
+        <v>189090.82</v>
       </c>
       <c r="H401">
-        <v>4025.1932</v>
+        <v>1977.8402</v>
       </c>
       <c r="I401">
-        <v>0.17803904</v>
+        <v>0.14606117</v>
       </c>
     </row>
     <row r="402">
@@ -14465,13 +14465,13 @@
         </is>
       </c>
       <c r="G403">
-        <v>189008340</v>
+        <v>193702950</v>
       </c>
       <c r="H403">
-        <v>1950540.5</v>
+        <v>2127433.3</v>
       </c>
       <c r="I403">
-        <v>0.5319515</v>
+        <v>0.46633222</v>
       </c>
     </row>
     <row r="404">
@@ -14500,13 +14500,13 @@
         </is>
       </c>
       <c r="G404">
-        <v>20463512</v>
+        <v>17128005</v>
       </c>
       <c r="H404">
-        <v>202728.11</v>
+        <v>170068.19</v>
       </c>
       <c r="I404">
-        <v>0.51610835</v>
+        <v>0.39008545</v>
       </c>
     </row>
     <row r="405">
@@ -14535,13 +14535,13 @@
         </is>
       </c>
       <c r="G405">
-        <v>4321810.1</v>
+        <v>2962701.1</v>
       </c>
       <c r="H405">
-        <v>45308.501</v>
+        <v>30831.167</v>
       </c>
       <c r="I405">
-        <v>0.56702087</v>
+        <v>0.51818434</v>
       </c>
     </row>
     <row r="406">
@@ -14605,13 +14605,13 @@
         </is>
       </c>
       <c r="G407">
-        <v>324346630</v>
+        <v>331139020</v>
       </c>
       <c r="H407">
-        <v>3356384.9</v>
+        <v>3724903.5</v>
       </c>
       <c r="I407">
-        <v>1.6488655</v>
+        <v>1.3844171</v>
       </c>
     </row>
     <row r="408">
@@ -14640,13 +14640,13 @@
         </is>
       </c>
       <c r="G408">
-        <v>35350278</v>
+        <v>30767835</v>
       </c>
       <c r="H408">
-        <v>351256.97</v>
+        <v>312022.65</v>
       </c>
       <c r="I408">
-        <v>1.5975825</v>
+        <v>1.175733</v>
       </c>
     </row>
     <row r="409">
@@ -14675,13 +14675,13 @@
         </is>
       </c>
       <c r="G409">
-        <v>7385806.9</v>
+        <v>5175853</v>
       </c>
       <c r="H409">
-        <v>78031.212</v>
+        <v>55556.96</v>
       </c>
       <c r="I409">
-        <v>1.7864953</v>
+        <v>1.6284139</v>
       </c>
     </row>
     <row r="410">
@@ -14710,13 +14710,13 @@
         </is>
       </c>
       <c r="G410">
-        <v>113051620</v>
+        <v>85355056</v>
       </c>
       <c r="H410">
-        <v>1210225.5</v>
+        <v>952152.1800000001</v>
       </c>
       <c r="I410">
-        <v>1.698179</v>
+        <v>1.6842951</v>
       </c>
     </row>
     <row r="411">
@@ -14745,13 +14745,13 @@
         </is>
       </c>
       <c r="G411">
-        <v>152606730</v>
+        <v>179240450</v>
       </c>
       <c r="H411">
-        <v>1439488.4</v>
+        <v>1807336.3</v>
       </c>
       <c r="I411">
-        <v>1.6151476</v>
+        <v>1.4831699</v>
       </c>
     </row>
     <row r="412">
@@ -14780,13 +14780,13 @@
         </is>
       </c>
       <c r="G412">
-        <v>16985429</v>
+        <v>18572599</v>
       </c>
       <c r="H412">
-        <v>154022.48</v>
+        <v>169775.86</v>
       </c>
       <c r="I412">
-        <v>1.5808901</v>
+        <v>1.3445167</v>
       </c>
     </row>
     <row r="413">
@@ -14815,13 +14815,13 @@
         </is>
       </c>
       <c r="G413">
-        <v>3421312.5</v>
+        <v>2896976.5</v>
       </c>
       <c r="H413">
-        <v>33535.262</v>
+        <v>28654.599</v>
       </c>
       <c r="I413">
-        <v>1.7912051</v>
+        <v>1.9721601</v>
       </c>
     </row>
     <row r="414">
@@ -14850,13 +14850,13 @@
         </is>
       </c>
       <c r="G414">
-        <v>27763768</v>
+        <v>26921578</v>
       </c>
       <c r="H414">
-        <v>255647.52</v>
+        <v>233698.05</v>
       </c>
       <c r="I414">
-        <v>0.078464168</v>
+        <v>0.08198119199999999</v>
       </c>
     </row>
     <row r="415">
@@ -14885,13 +14885,13 @@
         </is>
       </c>
       <c r="G415">
-        <v>3772730.4</v>
+        <v>4526171.1</v>
       </c>
       <c r="H415">
-        <v>32336.206</v>
+        <v>37379.36</v>
       </c>
       <c r="I415">
-        <v>0.068673686</v>
+        <v>0.06325026</v>
       </c>
     </row>
     <row r="416">
@@ -14920,13 +14920,13 @@
         </is>
       </c>
       <c r="G416">
-        <v>427893.59</v>
+        <v>526878.49</v>
       </c>
       <c r="H416">
-        <v>3550.4992</v>
+        <v>4101.5861</v>
       </c>
       <c r="I416">
-        <v>0.06817841700000001</v>
+        <v>0.06324271400000001</v>
       </c>
     </row>
     <row r="417">
@@ -14955,13 +14955,13 @@
         </is>
       </c>
       <c r="G417">
-        <v>82410.75900000001</v>
+        <v>72175.761</v>
       </c>
       <c r="H417">
-        <v>750.40589</v>
+        <v>619.21163</v>
       </c>
       <c r="I417">
-        <v>0.076044053</v>
+        <v>0.08887969699999999</v>
       </c>
     </row>
     <row r="418">
@@ -15025,13 +15025,13 @@
         </is>
       </c>
       <c r="G419">
-        <v>105595310</v>
+        <v>103383280</v>
       </c>
       <c r="H419">
-        <v>1018592.8</v>
+        <v>1012387.5</v>
       </c>
       <c r="I419">
-        <v>0.51842152</v>
+        <v>0.49188703</v>
       </c>
     </row>
     <row r="420">
@@ -15060,13 +15060,13 @@
         </is>
       </c>
       <c r="G420">
-        <v>16865112</v>
+        <v>18840775</v>
       </c>
       <c r="H420">
-        <v>150032.68</v>
+        <v>168029.72</v>
       </c>
       <c r="I420">
-        <v>0.45329232</v>
+        <v>0.3852663</v>
       </c>
     </row>
     <row r="421">
@@ -15095,13 +15095,13 @@
         </is>
       </c>
       <c r="G421">
-        <v>2281990.4</v>
+        <v>2518353.1</v>
       </c>
       <c r="H421">
-        <v>19998.643</v>
+        <v>21575.572</v>
       </c>
       <c r="I421">
-        <v>0.45813756</v>
+        <v>0.40409362</v>
       </c>
     </row>
     <row r="422">
@@ -15165,13 +15165,13 @@
         </is>
       </c>
       <c r="G423">
-        <v>199305360</v>
+        <v>194095780</v>
       </c>
       <c r="H423">
-        <v>1959710.6</v>
+        <v>1979272.1</v>
       </c>
       <c r="I423">
-        <v>1.7944414</v>
+        <v>1.6621308</v>
       </c>
     </row>
     <row r="424">
@@ -15200,13 +15200,13 @@
         </is>
       </c>
       <c r="G424">
-        <v>32281676</v>
+        <v>36872409</v>
       </c>
       <c r="H424">
-        <v>290829.36</v>
+        <v>343307.33</v>
       </c>
       <c r="I424">
-        <v>1.5302326</v>
+        <v>1.2800624</v>
       </c>
     </row>
     <row r="425">
@@ -15235,13 +15235,13 @@
         </is>
       </c>
       <c r="G425">
-        <v>4373546.9</v>
+        <v>4992385.9</v>
       </c>
       <c r="H425">
-        <v>38943.491</v>
+        <v>45020.378</v>
       </c>
       <c r="I425">
-        <v>1.553793</v>
+        <v>1.3793394</v>
       </c>
     </row>
     <row r="426">
@@ -15270,13 +15270,13 @@
         </is>
       </c>
       <c r="G426">
-        <v>85691934</v>
+        <v>75491577</v>
       </c>
       <c r="H426">
-        <v>917338.17</v>
+        <v>842123.17</v>
       </c>
       <c r="I426">
-        <v>1.6981789</v>
+        <v>1.6847354</v>
       </c>
     </row>
     <row r="427">
@@ -15305,13 +15305,13 @@
         </is>
       </c>
       <c r="G427">
-        <v>91375693</v>
+        <v>96239753</v>
       </c>
       <c r="H427">
-        <v>853534.8100000001</v>
+        <v>899446.64</v>
       </c>
       <c r="I427">
-        <v>1.7803609</v>
+        <v>1.7449887</v>
       </c>
     </row>
     <row r="428">
@@ -15340,13 +15340,13 @@
         </is>
       </c>
       <c r="G428">
-        <v>15560417</v>
+        <v>20213266</v>
       </c>
       <c r="H428">
-        <v>129954.68</v>
+        <v>173813.81</v>
       </c>
       <c r="I428">
-        <v>1.4894926</v>
+        <v>1.3483303</v>
       </c>
     </row>
     <row r="429">
@@ -15375,13 +15375,13 @@
         </is>
       </c>
       <c r="G429">
-        <v>2115200</v>
+        <v>2798647.1</v>
       </c>
       <c r="H429">
-        <v>17634.79</v>
+        <v>23786.209</v>
       </c>
       <c r="I429">
-        <v>1.5293872</v>
+        <v>1.5395177</v>
       </c>
     </row>
     <row r="430">
@@ -15410,13 +15410,13 @@
         </is>
       </c>
       <c r="G430">
-        <v>114049970</v>
+        <v>111360470</v>
       </c>
       <c r="H430">
-        <v>1049529.6</v>
+        <v>966428.88</v>
       </c>
       <c r="I430">
-        <v>0.25644993</v>
+        <v>0.29746329</v>
       </c>
     </row>
     <row r="431">
@@ -15445,13 +15445,13 @@
         </is>
       </c>
       <c r="G431">
-        <v>7146045.1</v>
+        <v>8923985.9</v>
       </c>
       <c r="H431">
-        <v>63678.156</v>
+        <v>74414.95</v>
       </c>
       <c r="I431">
-        <v>0.2504036</v>
+        <v>0.29108317</v>
       </c>
     </row>
     <row r="432">
@@ -15480,13 +15480,13 @@
         </is>
       </c>
       <c r="G432">
-        <v>1292691.5</v>
+        <v>2090078.3</v>
       </c>
       <c r="H432">
-        <v>10082.411</v>
+        <v>16201.723</v>
       </c>
       <c r="I432">
-        <v>0.21307858</v>
+        <v>0.23631114</v>
       </c>
     </row>
     <row r="433">
@@ -15515,13 +15515,13 @@
         </is>
       </c>
       <c r="G433">
-        <v>175481.85</v>
+        <v>289655.41</v>
       </c>
       <c r="H433">
-        <v>1379.8761</v>
+        <v>2276.3717</v>
       </c>
       <c r="I433">
-        <v>0.21983203</v>
+        <v>0.27844859</v>
       </c>
     </row>
     <row r="434">
@@ -15585,13 +15585,13 @@
         </is>
       </c>
       <c r="G435">
-        <v>132968010</v>
+        <v>129920870</v>
       </c>
       <c r="H435">
-        <v>1291704</v>
+        <v>1275542.8</v>
       </c>
       <c r="I435">
-        <v>0.45605251</v>
+        <v>0.5225276599999999</v>
       </c>
     </row>
     <row r="436">
@@ -15620,13 +15620,13 @@
         </is>
       </c>
       <c r="G436">
-        <v>8498164.800000001</v>
+        <v>10443925</v>
       </c>
       <c r="H436">
-        <v>78415.52800000001</v>
+        <v>93714.67999999999</v>
       </c>
       <c r="I436">
-        <v>0.44966865</v>
+        <v>0.5216465</v>
       </c>
     </row>
     <row r="437">
@@ -15655,13 +15655,13 @@
         </is>
       </c>
       <c r="G437">
-        <v>1767418.4</v>
+        <v>2868797</v>
       </c>
       <c r="H437">
-        <v>14287.206</v>
+        <v>23979.799</v>
       </c>
       <c r="I437">
-        <v>0.38386549</v>
+        <v>0.43703809</v>
       </c>
     </row>
     <row r="438">
@@ -15725,13 +15725,13 @@
         </is>
       </c>
       <c r="G439">
-        <v>172019190</v>
+        <v>167659060</v>
       </c>
       <c r="H439">
-        <v>1704562.4</v>
+        <v>1703230.3</v>
       </c>
       <c r="I439">
-        <v>0.9745769399999999</v>
+        <v>1.1466785</v>
       </c>
     </row>
     <row r="440">
@@ -15760,13 +15760,13 @@
         </is>
       </c>
       <c r="G440">
-        <v>11053074</v>
+        <v>13816664</v>
       </c>
       <c r="H440">
-        <v>104719.53</v>
+        <v>131107.02</v>
       </c>
       <c r="I440">
-        <v>0.96410273</v>
+        <v>1.1777601</v>
       </c>
     </row>
     <row r="441">
@@ -15795,13 +15795,13 @@
         </is>
       </c>
       <c r="G441">
-        <v>2340803.4</v>
+        <v>3937339.7</v>
       </c>
       <c r="H441">
-        <v>19392.851</v>
+        <v>34770.324</v>
       </c>
       <c r="I441">
-        <v>0.81643968</v>
+        <v>0.99028532</v>
       </c>
     </row>
     <row r="442">
@@ -15830,13 +15830,13 @@
         </is>
       </c>
       <c r="G442">
-        <v>46468060</v>
+        <v>58338775</v>
       </c>
       <c r="H442">
-        <v>497443.85</v>
+        <v>650780.34</v>
       </c>
       <c r="I442">
-        <v>1.0908792</v>
+        <v>1.1821865</v>
       </c>
     </row>
     <row r="443">
@@ -15865,13 +15865,13 @@
         </is>
       </c>
       <c r="G443">
-        <v>114800210</v>
+        <v>100891840</v>
       </c>
       <c r="H443">
-        <v>1130938.3</v>
+        <v>998617.8199999999</v>
       </c>
       <c r="I443">
-        <v>1.1765636</v>
+        <v>1.2946078</v>
       </c>
     </row>
     <row r="444">
@@ -15900,13 +15900,13 @@
         </is>
       </c>
       <c r="G444">
-        <v>7446466.3</v>
+        <v>8530878</v>
       </c>
       <c r="H444">
-        <v>70870.42600000001</v>
+        <v>81395.827</v>
       </c>
       <c r="I444">
-        <v>1.1728442</v>
+        <v>1.3844961</v>
       </c>
     </row>
     <row r="445">
@@ -15935,13 +15935,13 @@
         </is>
       </c>
       <c r="G445">
-        <v>1633821.4</v>
+        <v>2587069.5</v>
       </c>
       <c r="H445">
-        <v>13509.825</v>
+        <v>22917.507</v>
       </c>
       <c r="I445">
-        <v>0.9873807999999999</v>
+        <v>1.1799432</v>
       </c>
     </row>
     <row r="446">
@@ -15970,13 +15970,13 @@
         </is>
       </c>
       <c r="G446">
-        <v>70255557</v>
+        <v>71412113</v>
       </c>
       <c r="H446">
-        <v>649631.54</v>
+        <v>626556.59</v>
       </c>
       <c r="I446">
-        <v>0.20890768</v>
+        <v>0.2191452</v>
       </c>
     </row>
     <row r="447">
@@ -16005,13 +16005,13 @@
         </is>
       </c>
       <c r="G447">
-        <v>12653578</v>
+        <v>11247911</v>
       </c>
       <c r="H447">
-        <v>122659.69</v>
+        <v>106385.54</v>
       </c>
       <c r="I447">
-        <v>0.21431402</v>
+        <v>0.24311102</v>
       </c>
     </row>
     <row r="448">
@@ -16040,13 +16040,13 @@
         </is>
       </c>
       <c r="G448">
-        <v>827707.67</v>
+        <v>955106.91</v>
       </c>
       <c r="H448">
-        <v>7841.3685</v>
+        <v>8977.3621</v>
       </c>
       <c r="I448">
-        <v>0.21536564</v>
+        <v>0.26492558</v>
       </c>
     </row>
     <row r="449">
@@ -16075,13 +16075,13 @@
         </is>
       </c>
       <c r="G449">
-        <v>189897.93</v>
+        <v>311609.61</v>
       </c>
       <c r="H449">
-        <v>1551.5436</v>
+        <v>2719.7519</v>
       </c>
       <c r="I449">
-        <v>0.18433958</v>
+        <v>0.23559459</v>
       </c>
     </row>
     <row r="450">
@@ -16145,13 +16145,13 @@
         </is>
       </c>
       <c r="G451">
-        <v>94880259</v>
+        <v>97602126</v>
       </c>
       <c r="H451">
-        <v>915206.21</v>
+        <v>944901.8</v>
       </c>
       <c r="I451">
-        <v>0.49302151</v>
+        <v>0.50162253</v>
       </c>
     </row>
     <row r="452">
@@ -16180,13 +16180,13 @@
         </is>
       </c>
       <c r="G452">
-        <v>19783751</v>
+        <v>16769709</v>
       </c>
       <c r="H452">
-        <v>197941.43</v>
+        <v>168904.41</v>
       </c>
       <c r="I452">
-        <v>0.50725239</v>
+        <v>0.55384493</v>
       </c>
     </row>
     <row r="453">
@@ -16215,13 +16215,13 @@
         </is>
       </c>
       <c r="G453">
-        <v>1596100.1</v>
+        <v>1888274.4</v>
       </c>
       <c r="H453">
-        <v>15257.469</v>
+        <v>18721.999</v>
       </c>
       <c r="I453">
-        <v>0.49469206</v>
+        <v>0.58907361</v>
       </c>
     </row>
     <row r="454">
@@ -16285,13 +16285,13 @@
         </is>
       </c>
       <c r="G455">
-        <v>194995180</v>
+        <v>201036690</v>
       </c>
       <c r="H455">
-        <v>1919886.1</v>
+        <v>2026863.5</v>
       </c>
       <c r="I455">
-        <v>1.8679485</v>
+        <v>1.9178624</v>
       </c>
     </row>
     <row r="456">
@@ -16320,13 +16320,13 @@
         </is>
       </c>
       <c r="G456">
-        <v>40452243</v>
+        <v>33887137</v>
       </c>
       <c r="H456">
-        <v>412526.94</v>
+        <v>356031.42</v>
       </c>
       <c r="I456">
-        <v>1.9291062</v>
+        <v>2.1468523</v>
       </c>
     </row>
     <row r="457">
@@ -16355,13 +16355,13 @@
         </is>
       </c>
       <c r="G457">
-        <v>3282047.9</v>
+        <v>3805635.5</v>
       </c>
       <c r="H457">
-        <v>32112.004</v>
+        <v>39702.637</v>
       </c>
       <c r="I457">
-        <v>1.8778397</v>
+        <v>2.3377224</v>
       </c>
     </row>
     <row r="458">
@@ -16390,13 +16390,13 @@
         </is>
       </c>
       <c r="G458">
-        <v>49326463</v>
+        <v>59055857</v>
       </c>
       <c r="H458">
-        <v>528043.25</v>
+        <v>658779.52</v>
       </c>
       <c r="I458">
-        <v>1.6981792</v>
+        <v>1.6850671</v>
       </c>
     </row>
     <row r="459">
@@ -16425,13 +16425,13 @@
         </is>
       </c>
       <c r="G459">
-        <v>85138372</v>
+        <v>80097926</v>
       </c>
       <c r="H459">
-        <v>793107.08</v>
+        <v>709811.0699999999</v>
       </c>
       <c r="I459">
-        <v>1.7830446</v>
+        <v>1.6574995</v>
       </c>
     </row>
     <row r="460">
@@ -16460,13 +16460,13 @@
         </is>
       </c>
       <c r="G460">
-        <v>17323282</v>
+        <v>12669291</v>
       </c>
       <c r="H460">
-        <v>166615.75</v>
+        <v>117147.56</v>
       </c>
       <c r="I460">
-        <v>1.8312189</v>
+        <v>1.8328029</v>
       </c>
     </row>
     <row r="461">
@@ -16495,13 +16495,13 @@
         </is>
       </c>
       <c r="G461">
-        <v>1434804.3</v>
+        <v>1399848.2</v>
       </c>
       <c r="H461">
-        <v>13401.486</v>
+        <v>13150.945</v>
       </c>
       <c r="I461">
-        <v>1.8008394</v>
+        <v>2.0714435</v>
       </c>
     </row>
     <row r="462">
@@ -16530,13 +16530,13 @@
         </is>
       </c>
       <c r="G462">
-        <v>17420486</v>
+        <v>17120216</v>
       </c>
       <c r="H462">
-        <v>160355.55</v>
+        <v>148662.35</v>
       </c>
       <c r="I462">
-        <v>0.088526471</v>
+        <v>0.099505813</v>
       </c>
     </row>
     <row r="463">
@@ -16565,13 +16565,13 @@
         </is>
       </c>
       <c r="G463">
-        <v>2354688</v>
+        <v>2718825.8</v>
       </c>
       <c r="H463">
-        <v>20960.671</v>
+        <v>22122.907</v>
       </c>
       <c r="I463">
-        <v>0.086938582</v>
+        <v>0.097663736</v>
       </c>
     </row>
     <row r="464">
@@ -16600,13 +16600,13 @@
         </is>
       </c>
       <c r="G464">
-        <v>471243.62</v>
+        <v>403855.87</v>
       </c>
       <c r="H464">
-        <v>4317.0744</v>
+        <v>3411.6533</v>
       </c>
       <c r="I464">
-        <v>0.08840743399999999</v>
+        <v>0.10390915</v>
       </c>
     </row>
     <row r="465">
@@ -16635,13 +16635,13 @@
         </is>
       </c>
       <c r="G465">
-        <v>39569.147</v>
+        <v>43088.934</v>
       </c>
       <c r="H465">
-        <v>355.14232</v>
+        <v>373.7771</v>
       </c>
       <c r="I465">
-        <v>0.087773692</v>
+        <v>0.11731426</v>
       </c>
     </row>
     <row r="466">
@@ -16705,13 +16705,13 @@
         </is>
       </c>
       <c r="G467">
-        <v>24248572</v>
+        <v>23943342</v>
       </c>
       <c r="H467">
-        <v>241732.69</v>
+        <v>249592.38</v>
       </c>
       <c r="I467">
-        <v>0.13160323</v>
+        <v>0.14514244</v>
       </c>
     </row>
     <row r="468">
@@ -16740,13 +16740,13 @@
         </is>
       </c>
       <c r="G468">
-        <v>2511641.9</v>
+        <v>2891391.2</v>
       </c>
       <c r="H468">
-        <v>23298.524</v>
+        <v>25749.737</v>
       </c>
       <c r="I468">
-        <v>0.13190207</v>
+        <v>0.14823109</v>
       </c>
     </row>
     <row r="469">
@@ -16775,13 +16775,13 @@
         </is>
       </c>
       <c r="G469">
-        <v>544178.74</v>
+        <v>469656.65</v>
       </c>
       <c r="H469">
-        <v>5180.1546</v>
+        <v>4341.9578</v>
       </c>
       <c r="I469">
-        <v>0.13394551</v>
+        <v>0.15790542</v>
       </c>
     </row>
     <row r="470">
@@ -16845,13 +16845,13 @@
         </is>
       </c>
       <c r="G471">
-        <v>183738180</v>
+        <v>180899780</v>
       </c>
       <c r="H471">
-        <v>1889686.5</v>
+        <v>1998228.5</v>
       </c>
       <c r="I471">
-        <v>1.7279075</v>
+        <v>1.9536448</v>
       </c>
     </row>
     <row r="472">
@@ -16880,13 +16880,13 @@
         </is>
       </c>
       <c r="G472">
-        <v>19082468</v>
+        <v>22443886</v>
       </c>
       <c r="H472">
-        <v>183924.05</v>
+        <v>217069.55</v>
       </c>
       <c r="I472">
-        <v>1.7387228</v>
+        <v>2.080749</v>
       </c>
     </row>
     <row r="473">
@@ -16915,13 +16915,13 @@
         </is>
       </c>
       <c r="G473">
-        <v>4128582.4</v>
+        <v>3605555.3</v>
       </c>
       <c r="H473">
-        <v>40784.113</v>
+        <v>36114.585</v>
       </c>
       <c r="I473">
-        <v>1.77001</v>
+        <v>2.2333012</v>
       </c>
     </row>
     <row r="474">
@@ -16950,13 +16950,13 @@
         </is>
       </c>
       <c r="G474">
-        <v>30070717</v>
+        <v>25100990</v>
       </c>
       <c r="H474">
-        <v>321909.13</v>
+        <v>280006.4</v>
       </c>
       <c r="I474">
-        <v>1.1357624</v>
+        <v>1.6852499</v>
       </c>
     </row>
     <row r="475">
@@ -16985,13 +16985,13 @@
         </is>
       </c>
       <c r="G475">
-        <v>61898752</v>
+        <v>64579598</v>
       </c>
       <c r="H475">
-        <v>593872.04</v>
+        <v>594069.12</v>
       </c>
       <c r="I475">
-        <v>1.1609818</v>
+        <v>1.4908605</v>
       </c>
     </row>
     <row r="476">
@@ -17020,13 +17020,13 @@
         </is>
       </c>
       <c r="G476">
-        <v>6592387.2</v>
+        <v>8925558.199999999</v>
       </c>
       <c r="H476">
-        <v>61417.874</v>
+        <v>80003.84</v>
       </c>
       <c r="I476">
-        <v>1.2062158</v>
+        <v>1.8836346</v>
       </c>
     </row>
     <row r="477">
@@ -17055,13 +17055,13 @@
         </is>
       </c>
       <c r="G477">
-        <v>1409466.7</v>
+        <v>1365176.3</v>
       </c>
       <c r="H477">
-        <v>13413.182</v>
+        <v>12556.278</v>
       </c>
       <c r="I477">
-        <v>1.2206211</v>
+        <v>1.9893044</v>
       </c>
     </row>
     <row r="478">
@@ -17090,13 +17090,13 @@
         </is>
       </c>
       <c r="G478">
-        <v>30977604</v>
+        <v>31264140</v>
       </c>
       <c r="H478">
-        <v>285451.11</v>
+        <v>271176.6</v>
       </c>
       <c r="I478">
-        <v>0.06049386</v>
+        <v>0.07739124999999999</v>
       </c>
     </row>
     <row r="479">
@@ -17125,13 +17125,13 @@
         </is>
       </c>
       <c r="G479">
-        <v>1930564.6</v>
+        <v>1639562.8</v>
       </c>
       <c r="H479">
-        <v>18054.421</v>
+        <v>13275.715</v>
       </c>
       <c r="I479">
-        <v>0.058573175</v>
+        <v>0.063992591</v>
       </c>
     </row>
     <row r="480">
@@ -17160,13 +17160,13 @@
         </is>
       </c>
       <c r="G480">
-        <v>206532.04</v>
+        <v>222000.36</v>
       </c>
       <c r="H480">
-        <v>1917.2544</v>
+        <v>1875.7365</v>
       </c>
       <c r="I480">
-        <v>0.061514355</v>
+        <v>0.083686951</v>
       </c>
     </row>
     <row r="481">
@@ -17195,13 +17195,13 @@
         </is>
       </c>
       <c r="G481">
-        <v>43870.878</v>
+        <v>32868.079</v>
       </c>
       <c r="H481">
-        <v>414.79138</v>
+        <v>282.00545</v>
       </c>
       <c r="I481">
-        <v>0.061966229</v>
+        <v>0.086815321</v>
       </c>
     </row>
     <row r="482">
@@ -17265,13 +17265,13 @@
         </is>
       </c>
       <c r="G483">
-        <v>26304945</v>
+        <v>26577685</v>
       </c>
       <c r="H483">
-        <v>252394.71</v>
+        <v>249929.15</v>
       </c>
       <c r="I483">
-        <v>0.090963145</v>
+        <v>0.11712816</v>
       </c>
     </row>
     <row r="484">
@@ -17300,13 +17300,13 @@
         </is>
       </c>
       <c r="G484">
-        <v>2058637.6</v>
+        <v>1781307.6</v>
       </c>
       <c r="H484">
-        <v>19987.216</v>
+        <v>15712.734</v>
       </c>
       <c r="I484">
-        <v>0.08804292599999999</v>
+        <v>0.09819391800000001</v>
       </c>
     </row>
     <row r="485">
@@ -17335,13 +17335,13 @@
         </is>
       </c>
       <c r="G485">
-        <v>266734.8</v>
+        <v>271328.6</v>
       </c>
       <c r="H485">
-        <v>2588.0681</v>
+        <v>2518.4579</v>
       </c>
       <c r="I485">
-        <v>0.09257238399999999</v>
+        <v>0.12719347</v>
       </c>
     </row>
     <row r="486">
@@ -17405,13 +17405,13 @@
         </is>
       </c>
       <c r="G487">
-        <v>127741480</v>
+        <v>128938380</v>
       </c>
       <c r="H487">
-        <v>1273224.7</v>
+        <v>1307281.7</v>
       </c>
       <c r="I487">
-        <v>0.67175412</v>
+        <v>0.8901742</v>
       </c>
     </row>
     <row r="488">
@@ -17440,13 +17440,13 @@
         </is>
       </c>
       <c r="G488">
-        <v>10000325</v>
+        <v>8788576.300000001</v>
       </c>
       <c r="H488">
-        <v>100562.87</v>
+        <v>83861.708</v>
       </c>
       <c r="I488">
-        <v>0.64830909</v>
+        <v>0.74389086</v>
       </c>
     </row>
     <row r="489">
@@ -17475,13 +17475,13 @@
         </is>
       </c>
       <c r="G489">
-        <v>1294145.6</v>
+        <v>1308997</v>
       </c>
       <c r="H489">
-        <v>13050.994</v>
+        <v>13221.794</v>
       </c>
       <c r="I489">
-        <v>0.68419385</v>
+        <v>0.97202365</v>
       </c>
     </row>
     <row r="490">
@@ -17510,13 +17510,13 @@
         </is>
       </c>
       <c r="G490">
-        <v>67367967</v>
+        <v>62563002</v>
       </c>
       <c r="H490">
-        <v>721178.8100000001</v>
+        <v>697902.41</v>
       </c>
       <c r="I490">
-        <v>0.56316169</v>
+        <v>0.71738677</v>
       </c>
     </row>
     <row r="491">
@@ -17545,13 +17545,13 @@
         </is>
       </c>
       <c r="G491">
-        <v>74335602</v>
+        <v>79328418</v>
       </c>
       <c r="H491">
-        <v>752662.74</v>
+        <v>825290.54</v>
       </c>
       <c r="I491">
-        <v>0.6372879</v>
+        <v>0.9542487200000001</v>
       </c>
     </row>
     <row r="492">
@@ -17580,13 +17580,13 @@
         </is>
       </c>
       <c r="G492">
-        <v>5821508.6</v>
+        <v>5591178</v>
       </c>
       <c r="H492">
-        <v>59037.746</v>
+        <v>54849.939</v>
       </c>
       <c r="I492">
-        <v>0.61149425</v>
+        <v>0.79363468</v>
       </c>
     </row>
     <row r="493">
@@ -17615,13 +17615,13 @@
         </is>
       </c>
       <c r="G493">
-        <v>750900.67</v>
+        <v>793380.22</v>
       </c>
       <c r="H493">
-        <v>7710.7315</v>
+        <v>8351.5455</v>
       </c>
       <c r="I493">
-        <v>0.64917428</v>
+        <v>1.0493561</v>
       </c>
     </row>
     <row r="494">
@@ -17650,13 +17650,13 @@
         </is>
       </c>
       <c r="G494">
-        <v>111596070</v>
+        <v>111931700</v>
       </c>
       <c r="H494">
-        <v>1058513.2</v>
+        <v>1016981.3</v>
       </c>
       <c r="I494">
-        <v>0.38735491</v>
+        <v>0.44179419</v>
       </c>
     </row>
     <row r="495">
@@ -17685,13 +17685,13 @@
         </is>
       </c>
       <c r="G495">
-        <v>31816854</v>
+        <v>31677719</v>
       </c>
       <c r="H495">
-        <v>327789.8</v>
+        <v>337224.91</v>
       </c>
       <c r="I495">
-        <v>0.43174212</v>
+        <v>0.6449190299999999</v>
       </c>
     </row>
     <row r="496">
@@ -17720,13 +17720,13 @@
         </is>
       </c>
       <c r="G496">
-        <v>2495696.2</v>
+        <v>2309917.8</v>
       </c>
       <c r="H496">
-        <v>25582.159</v>
+        <v>23176.702</v>
       </c>
       <c r="I496">
-        <v>0.41259014</v>
+        <v>0.5363482899999999</v>
       </c>
     </row>
     <row r="497">
@@ -17755,13 +17755,13 @@
         </is>
       </c>
       <c r="G497">
-        <v>320406.82</v>
+        <v>309686.53</v>
       </c>
       <c r="H497">
-        <v>3353.6866</v>
+        <v>3378.9683</v>
       </c>
       <c r="I497">
-        <v>0.43952795</v>
+        <v>0.70720765</v>
       </c>
     </row>
     <row r="498">
@@ -17825,13 +17825,13 @@
         </is>
       </c>
       <c r="G499">
-        <v>82468031</v>
+        <v>83573822</v>
       </c>
       <c r="H499">
-        <v>839831.03</v>
+        <v>906632.27</v>
       </c>
       <c r="I499">
-        <v>0.24181999</v>
+        <v>0.27623233</v>
       </c>
     </row>
     <row r="500">
@@ -17860,13 +17860,13 @@
         </is>
       </c>
       <c r="G500">
-        <v>13383633</v>
+        <v>12415021</v>
       </c>
       <c r="H500">
-        <v>141361.67</v>
+        <v>138175.47</v>
       </c>
       <c r="I500">
-        <v>0.27463729</v>
+        <v>0.39883853</v>
       </c>
     </row>
     <row r="501">
@@ -17895,13 +17895,13 @@
         </is>
       </c>
       <c r="G501">
-        <v>1186457</v>
+        <v>1049272.2</v>
       </c>
       <c r="H501">
-        <v>12448.072</v>
+        <v>11105.408</v>
       </c>
       <c r="I501">
-        <v>0.26381565</v>
+        <v>0.34245157</v>
       </c>
     </row>
     <row r="502">
@@ -17965,13 +17965,13 @@
         </is>
       </c>
       <c r="G503">
-        <v>165283150</v>
+        <v>167892390</v>
       </c>
       <c r="H503">
-        <v>1721250.4</v>
+        <v>1897252.8</v>
       </c>
       <c r="I503">
-        <v>0.75916399</v>
+        <v>0.8865482</v>
       </c>
     </row>
     <row r="504">
@@ -18000,13 +18000,13 @@
         </is>
       </c>
       <c r="G504">
-        <v>26663473</v>
+        <v>24327407</v>
       </c>
       <c r="H504">
-        <v>290120.88</v>
+        <v>286985.8</v>
       </c>
       <c r="I504">
-        <v>0.87245861</v>
+        <v>1.3382911</v>
       </c>
     </row>
     <row r="505">
@@ -18035,13 +18035,13 @@
         </is>
       </c>
       <c r="G505">
-        <v>2367493.6</v>
+        <v>2094320.3</v>
       </c>
       <c r="H505">
-        <v>25515.783</v>
+        <v>23444.794</v>
       </c>
       <c r="I505">
-        <v>0.83444058</v>
+        <v>1.1343556</v>
       </c>
     </row>
     <row r="506">
@@ -18070,13 +18070,13 @@
         </is>
       </c>
       <c r="G506">
-        <v>93238605</v>
+        <v>99665295</v>
       </c>
       <c r="H506">
-        <v>998125.8199999999</v>
+        <v>1111785.7</v>
       </c>
       <c r="I506">
-        <v>0.81478635</v>
+        <v>0.93229582</v>
       </c>
     </row>
     <row r="507">
@@ -18105,13 +18105,13 @@
         </is>
       </c>
       <c r="G507">
-        <v>110379780</v>
+        <v>107128950</v>
       </c>
       <c r="H507">
-        <v>1139553.3</v>
+        <v>1184656</v>
       </c>
       <c r="I507">
-        <v>0.8585841</v>
+        <v>0.98933084</v>
       </c>
     </row>
     <row r="508">
@@ -18140,13 +18140,13 @@
         </is>
       </c>
       <c r="G508">
-        <v>17540291</v>
+        <v>14620782</v>
       </c>
       <c r="H508">
-        <v>192569.6</v>
+        <v>174645.33</v>
       </c>
       <c r="I508">
-        <v>1.0036452</v>
+        <v>1.6049642</v>
       </c>
     </row>
     <row r="509">
@@ -18175,13 +18175,13 @@
         </is>
       </c>
       <c r="G509">
-        <v>1563803.2</v>
+        <v>1307445.6</v>
       </c>
       <c r="H509">
-        <v>16894.509</v>
+        <v>14712.565</v>
       </c>
       <c r="I509">
-        <v>0.95333826</v>
+        <v>1.3324056</v>
       </c>
     </row>
     <row r="510">
@@ -18210,13 +18210,13 @@
         </is>
       </c>
       <c r="G510">
-        <v>79554542</v>
+        <v>82229090</v>
       </c>
       <c r="H510">
-        <v>744346.9399999999</v>
+        <v>734031.67</v>
       </c>
       <c r="I510">
-        <v>0.19674382</v>
+        <v>0.19955183</v>
       </c>
     </row>
     <row r="511">
@@ -18245,13 +18245,13 @@
         </is>
       </c>
       <c r="G511">
-        <v>16158535</v>
+        <v>14286313</v>
       </c>
       <c r="H511">
-        <v>164305.4</v>
+        <v>151192.67</v>
       </c>
       <c r="I511">
-        <v>0.1989011</v>
+        <v>0.21272149</v>
       </c>
     </row>
     <row r="512">
@@ -18280,13 +18280,13 @@
         </is>
       </c>
       <c r="G512">
-        <v>2513126.4</v>
+        <v>1769567.9</v>
       </c>
       <c r="H512">
-        <v>27720.017</v>
+        <v>21081.098</v>
       </c>
       <c r="I512">
-        <v>0.23286652</v>
+        <v>0.3452662</v>
       </c>
     </row>
     <row r="513">
@@ -18315,13 +18315,13 @@
         </is>
       </c>
       <c r="G513">
-        <v>225479.55</v>
+        <v>166712.61</v>
       </c>
       <c r="H513">
-        <v>2429.3261</v>
+        <v>1850.6318</v>
       </c>
       <c r="I513">
-        <v>0.22081631</v>
+        <v>0.28924962</v>
       </c>
     </row>
     <row r="514">
@@ -18385,13 +18385,13 @@
         </is>
       </c>
       <c r="G515">
-        <v>34307010</v>
+        <v>36430289</v>
       </c>
       <c r="H515">
-        <v>333912.55</v>
+        <v>360681.73</v>
       </c>
       <c r="I515">
-        <v>0.14317448</v>
+        <v>0.13506984</v>
       </c>
     </row>
     <row r="516">
@@ -18420,13 +18420,13 @@
         </is>
       </c>
       <c r="G516">
-        <v>8130421.9</v>
+        <v>6532438.7</v>
       </c>
       <c r="H516">
-        <v>84797.15300000001</v>
+        <v>72305.769</v>
       </c>
       <c r="I516">
-        <v>0.14459809</v>
+        <v>0.14071091</v>
       </c>
     </row>
     <row r="517">
@@ -18455,13 +18455,13 @@
         </is>
       </c>
       <c r="G517">
-        <v>1366122.1</v>
+        <v>840823.16</v>
       </c>
       <c r="H517">
-        <v>15501.027</v>
+        <v>10577.093</v>
       </c>
       <c r="I517">
-        <v>0.16827305</v>
+        <v>0.21890184</v>
       </c>
     </row>
     <row r="518">
@@ -18525,13 +18525,13 @@
         </is>
       </c>
       <c r="G519">
-        <v>217406080</v>
+        <v>231564360</v>
       </c>
       <c r="H519">
-        <v>2188647.3</v>
+        <v>2446588.1</v>
       </c>
       <c r="I519">
-        <v>1.5404234</v>
+        <v>1.4389396</v>
       </c>
     </row>
     <row r="520">
@@ -18560,13 +18560,13 @@
         </is>
       </c>
       <c r="G520">
-        <v>51367436</v>
+        <v>40771105</v>
       </c>
       <c r="H520">
-        <v>550863.59</v>
+        <v>475522.86</v>
       </c>
       <c r="I520">
-        <v>1.553735</v>
+        <v>1.4800827</v>
       </c>
     </row>
     <row r="521">
@@ -18595,13 +18595,13 @@
         </is>
       </c>
       <c r="G521">
-        <v>8565727</v>
+        <v>5003776.5</v>
       </c>
       <c r="H521">
-        <v>100274.8</v>
+        <v>67141.344</v>
       </c>
       <c r="I521">
-        <v>1.8663212</v>
+        <v>2.4892937</v>
       </c>
     </row>
     <row r="522">
@@ -18630,13 +18630,13 @@
         </is>
       </c>
       <c r="G522">
-        <v>97203987</v>
+        <v>111673040</v>
       </c>
       <c r="H522">
-        <v>1040575.5</v>
+        <v>1245734.4</v>
       </c>
       <c r="I522">
-        <v>1.6344535</v>
+        <v>1.2408372</v>
       </c>
     </row>
     <row r="523">
@@ -18665,13 +18665,13 @@
         </is>
       </c>
       <c r="G523">
-        <v>118851080</v>
+        <v>115023630</v>
       </c>
       <c r="H523">
-        <v>1151448.7</v>
+        <v>1154398.1</v>
       </c>
       <c r="I523">
-        <v>1.7567292</v>
+        <v>1.413264</v>
       </c>
     </row>
     <row r="524">
@@ -18700,13 +18700,13 @@
         </is>
       </c>
       <c r="G524">
-        <v>27448139</v>
+        <v>19188253</v>
       </c>
       <c r="H524">
-        <v>276414.05</v>
+        <v>205753.76</v>
       </c>
       <c r="I524">
-        <v>1.7295629</v>
+        <v>1.3793299</v>
       </c>
     </row>
     <row r="525">
@@ -18735,13 +18735,13 @@
         </is>
       </c>
       <c r="G525">
-        <v>4343853.2</v>
+        <v>1962138</v>
       </c>
       <c r="H525">
-        <v>49375.766</v>
+        <v>25419.777</v>
       </c>
       <c r="I525">
-        <v>2.1602224</v>
+        <v>2.5282524</v>
       </c>
     </row>
     <row r="526">
@@ -18770,13 +18770,13 @@
         </is>
       </c>
       <c r="G526">
-        <v>54522667</v>
+        <v>49734468</v>
       </c>
       <c r="H526">
-        <v>501864.22</v>
+        <v>438991.29</v>
       </c>
       <c r="I526">
-        <v>0.087381999</v>
+        <v>0.13994628</v>
       </c>
     </row>
     <row r="527">
@@ -18805,13 +18805,13 @@
         </is>
       </c>
       <c r="G527">
-        <v>3342326.6</v>
+        <v>7661600.9</v>
       </c>
       <c r="H527">
-        <v>30769.493</v>
+        <v>72761.36599999999</v>
       </c>
       <c r="I527">
-        <v>0.08678627899999999</v>
+        <v>0.15940595</v>
       </c>
     </row>
     <row r="528">
@@ -18840,13 +18840,13 @@
         </is>
       </c>
       <c r="G528">
-        <v>761161.35</v>
+        <v>1240978.8</v>
       </c>
       <c r="H528">
-        <v>7079.8735</v>
+        <v>12156.262</v>
       </c>
       <c r="I528">
-        <v>0.083919722</v>
+        <v>0.15021066</v>
       </c>
     </row>
     <row r="529">
@@ -18875,13 +18875,13 @@
         </is>
       </c>
       <c r="G529">
-        <v>111177.74</v>
+        <v>100284.3</v>
       </c>
       <c r="H529">
-        <v>1212.1605</v>
+        <v>1237.677</v>
       </c>
       <c r="I529">
-        <v>0.1027758</v>
+        <v>0.25753201</v>
       </c>
     </row>
     <row r="530">
@@ -18945,13 +18945,13 @@
         </is>
       </c>
       <c r="G531">
-        <v>36766022</v>
+        <v>33202725</v>
       </c>
       <c r="H531">
-        <v>352002.4</v>
+        <v>318045.29</v>
       </c>
       <c r="I531">
-        <v>0.10487511</v>
+        <v>0.16231415</v>
       </c>
     </row>
     <row r="532">
@@ -18980,13 +18980,13 @@
         </is>
       </c>
       <c r="G532">
-        <v>2829783.1</v>
+        <v>6072977.7</v>
       </c>
       <c r="H532">
-        <v>27090.382</v>
+        <v>61813.648</v>
       </c>
       <c r="I532">
-        <v>0.10415081</v>
+        <v>0.18250928</v>
       </c>
     </row>
     <row r="533">
@@ -19015,13 +19015,13 @@
         </is>
       </c>
       <c r="G533">
-        <v>738030.87</v>
+        <v>1058132</v>
       </c>
       <c r="H533">
-        <v>7268.9533</v>
+        <v>11200.827</v>
       </c>
       <c r="I533">
-        <v>0.1030216</v>
+        <v>0.17644348</v>
       </c>
     </row>
     <row r="534">
@@ -19085,13 +19085,13 @@
         </is>
       </c>
       <c r="G535">
-        <v>193561130</v>
+        <v>175355350</v>
       </c>
       <c r="H535">
-        <v>1923997.4</v>
+        <v>1798186</v>
       </c>
       <c r="I535">
-        <v>0.86054696</v>
+        <v>1.4422233</v>
       </c>
     </row>
     <row r="536">
@@ -19120,13 +19120,13 @@
         </is>
       </c>
       <c r="G536">
-        <v>14899249</v>
+        <v>31506906</v>
       </c>
       <c r="H536">
-        <v>148050.98</v>
+        <v>342922.01</v>
       </c>
       <c r="I536">
-        <v>0.85392201</v>
+        <v>1.6331516</v>
       </c>
     </row>
     <row r="537">
@@ -19155,13 +19155,13 @@
         </is>
       </c>
       <c r="G537">
-        <v>3883334.4</v>
+        <v>5481453.3</v>
       </c>
       <c r="H537">
-        <v>39563.04</v>
+        <v>61455.215</v>
       </c>
       <c r="I537">
-        <v>0.84287411</v>
+        <v>1.5623521</v>
       </c>
     </row>
     <row r="538">
@@ -19190,13 +19190,13 @@
         </is>
       </c>
       <c r="G538">
-        <v>56154920</v>
+        <v>50069545</v>
       </c>
       <c r="H538">
-        <v>601142.36</v>
+        <v>558535.47</v>
       </c>
       <c r="I538">
-        <v>0.82912323</v>
+        <v>1.6843618</v>
       </c>
     </row>
     <row r="539">
@@ -19225,13 +19225,13 @@
         </is>
       </c>
       <c r="G539">
-        <v>120993410</v>
+        <v>115722840</v>
       </c>
       <c r="H539">
-        <v>1211532.5</v>
+        <v>1143263.4</v>
       </c>
       <c r="I539">
-        <v>0.9310697999999999</v>
+        <v>2.0201499</v>
       </c>
     </row>
     <row r="540">
@@ -19260,13 +19260,13 @@
         </is>
       </c>
       <c r="G540">
-        <v>9315823</v>
+        <v>19667011</v>
       </c>
       <c r="H540">
-        <v>93185.25199999999</v>
+        <v>206280.66</v>
       </c>
       <c r="I540">
-        <v>0.92238773</v>
+        <v>2.2881664</v>
       </c>
     </row>
     <row r="541">
@@ -19295,13 +19295,13 @@
         </is>
       </c>
       <c r="G541">
-        <v>2419564.2</v>
+        <v>3424327.4</v>
       </c>
       <c r="H541">
-        <v>24588.608</v>
+        <v>36093.262</v>
       </c>
       <c r="I541">
-        <v>0.90396242</v>
+        <v>2.1320005</v>
       </c>
     </row>
     <row r="542">
@@ -19330,13 +19330,13 @@
         </is>
       </c>
       <c r="G542">
-        <v>61530482</v>
+        <v>64629633</v>
       </c>
       <c r="H542">
-        <v>576382.9</v>
+        <v>561466.08</v>
       </c>
       <c r="I542">
-        <v>0.28124421</v>
+        <v>0.61801537</v>
       </c>
     </row>
     <row r="543">
@@ -19365,13 +19365,13 @@
         </is>
       </c>
       <c r="G543">
-        <v>24623296</v>
+        <v>20209252</v>
       </c>
       <c r="H543">
-        <v>247797.7</v>
+        <v>175877.64</v>
       </c>
       <c r="I543">
-        <v>0.30674905</v>
+        <v>0.69174373</v>
       </c>
     </row>
     <row r="544">
@@ -19400,13 +19400,13 @@
         </is>
       </c>
       <c r="G544">
-        <v>1896774.5</v>
+        <v>3139813.1</v>
       </c>
       <c r="H544">
-        <v>19051.861</v>
+        <v>28717.558</v>
       </c>
       <c r="I544">
-        <v>0.30357419</v>
+        <v>0.7479881</v>
       </c>
     </row>
     <row r="545">
@@ -19435,13 +19435,13 @@
         </is>
       </c>
       <c r="G545">
-        <v>491864.21</v>
+        <v>563718.28</v>
       </c>
       <c r="H545">
-        <v>4972.6725</v>
+        <v>5009.6356</v>
       </c>
       <c r="I545">
-        <v>0.29605608</v>
+        <v>0.69936035</v>
       </c>
     </row>
     <row r="546">
@@ -19505,13 +19505,13 @@
         </is>
       </c>
       <c r="G547">
-        <v>46402994</v>
+        <v>61487328</v>
       </c>
       <c r="H547">
-        <v>458209.65</v>
+        <v>708768.66</v>
       </c>
       <c r="I547">
-        <v>0.2972908</v>
+        <v>0.1682717</v>
       </c>
     </row>
     <row r="548">
@@ -19540,13 +19540,13 @@
         </is>
       </c>
       <c r="G548">
-        <v>17539272</v>
+        <v>3526735.6</v>
       </c>
       <c r="H548">
-        <v>181825.12</v>
+        <v>32110.411</v>
       </c>
       <c r="I548">
-        <v>0.32734246</v>
+        <v>0.18668188</v>
       </c>
     </row>
     <row r="549">
@@ -19575,13 +19575,13 @@
         </is>
       </c>
       <c r="G549">
-        <v>1702200.8</v>
+        <v>630390.17</v>
       </c>
       <c r="H549">
-        <v>17614.186</v>
+        <v>5978.5286</v>
       </c>
       <c r="I549">
-        <v>0.32200811</v>
+        <v>0.19627844</v>
       </c>
     </row>
     <row r="550">
@@ -19645,13 +19645,13 @@
         </is>
       </c>
       <c r="G551">
-        <v>155715320</v>
+        <v>205376880</v>
       </c>
       <c r="H551">
-        <v>1575525.2</v>
+        <v>2476974.4</v>
       </c>
       <c r="I551">
-        <v>1.7747671</v>
+        <v>0.88569547</v>
       </c>
     </row>
     <row r="552">
@@ -19680,13 +19680,13 @@
         </is>
       </c>
       <c r="G552">
-        <v>58472616</v>
+        <v>12313090</v>
       </c>
       <c r="H552">
-        <v>623626.8100000001</v>
+        <v>121234.78</v>
       </c>
       <c r="I552">
-        <v>2.0000579</v>
+        <v>1.0499487</v>
       </c>
     </row>
     <row r="553">
@@ -19715,13 +19715,13 @@
         </is>
       </c>
       <c r="G553">
-        <v>5678165.6</v>
+        <v>2176132.5</v>
       </c>
       <c r="H553">
-        <v>60373.574</v>
+        <v>22241.594</v>
       </c>
       <c r="I553">
-        <v>1.9577758</v>
+        <v>1.0992665</v>
       </c>
     </row>
   </sheetData>
